--- a/階段認識実験.xlsx
+++ b/階段認識実験.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="4110" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="4110"/>
   </bookViews>
   <sheets>
     <sheet name="研A 6階 上" sheetId="2" r:id="rId1"/>
@@ -112,6 +112,78 @@
         self.threshold = rs.threshold_filter()
         self.threshold.set_option(rs.option.min_distance, 0)
         self.threshold.set_option(rs.option.max_distance, 16)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O167" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>c0119103a1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="22"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>高さ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q167" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>c0119103a1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="22"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>奥行</t>
         </r>
       </text>
     </comment>
@@ -286,7 +358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="119">
   <si>
     <t>階段認識アルゴリズムの検証</t>
     <rPh sb="0" eb="2">
@@ -1071,6 +1143,77 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>提出後 追加実験</t>
+    <rPh sb="0" eb="3">
+      <t>テイシュツゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここまで</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>visual_preset = High Dencity
+laser_power = 360
+以下同じ</t>
+    <rPh sb="47" eb="49">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誤差平均</t>
+    <rPh sb="0" eb="4">
+      <t>ゴサヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均標準偏差</t>
+    <rPh sb="0" eb="6">
+      <t>ヘイキンヒョウジュンヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1084,7 +1227,7 @@
     <numFmt numFmtId="180" formatCode="0\°"/>
     <numFmt numFmtId="181" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1190,6 +1333,31 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1355,7 +1523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1488,185 +1656,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1938,22 +1955,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A3:J20" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A3:J20" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A3:J20"/>
   <sortState ref="A4:J20">
     <sortCondition ref="I3:I20"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="ID" dataDxfId="51"/>
-    <tableColumn id="2" name="後処理" dataDxfId="50"/>
-    <tableColumn id="3" name="プリセット" dataDxfId="49"/>
-    <tableColumn id="4" name="レーザー強度" dataDxfId="48"/>
-    <tableColumn id="5" name="階段までの距離" dataDxfId="47"/>
-    <tableColumn id="6" name="幅" dataDxfId="46"/>
-    <tableColumn id="7" name="高さ" dataDxfId="45"/>
-    <tableColumn id="8" name="奥行" dataDxfId="44"/>
-    <tableColumn id="9" name="スコア" dataDxfId="43"/>
-    <tableColumn id="11" name="誤差平均" dataDxfId="42">
+    <tableColumn id="1" name="ID" dataDxfId="32"/>
+    <tableColumn id="2" name="後処理" dataDxfId="31"/>
+    <tableColumn id="3" name="プリセット" dataDxfId="30"/>
+    <tableColumn id="4" name="レーザー強度" dataDxfId="29"/>
+    <tableColumn id="5" name="階段までの距離" dataDxfId="28"/>
+    <tableColumn id="6" name="幅" dataDxfId="27"/>
+    <tableColumn id="7" name="高さ" dataDxfId="26"/>
+    <tableColumn id="8" name="奥行" dataDxfId="25"/>
+    <tableColumn id="9" name="スコア" dataDxfId="24"/>
+    <tableColumn id="11" name="誤差平均" dataDxfId="23">
       <calculatedColumnFormula>AVERAGE(ABS(テーブル1[[#This Row],[階段までの距離]]),ABS(テーブル1[[#This Row],[高さ]]),ABS(テーブル1[[#This Row],[奥行]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2224,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y105"/>
+  <dimension ref="A1:AA281"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U95" sqref="U95"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O167" sqref="O167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2245,7 +2262,9 @@
     <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.6640625" customWidth="1"/>
     <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -3006,7 +3025,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="36">
+    <row r="17" spans="1:24" ht="36">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3060,7 +3079,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="36" customHeight="1">
+    <row r="18" spans="1:24" ht="36" customHeight="1">
       <c r="A18" s="3">
         <v>13</v>
       </c>
@@ -3113,7 +3132,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="36">
+    <row r="19" spans="1:24" ht="36">
       <c r="A19">
         <v>14</v>
       </c>
@@ -3168,8 +3187,12 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="36" customHeight="1">
+      <c r="X19" s="4">
+        <f>MAX(Q20:Q87)</f>
+        <v>1.2725000000000014E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="36" customHeight="1">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -3231,7 +3254,7 @@
         <v>0.41158599999999984</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="36">
+    <row r="21" spans="1:24" ht="36">
       <c r="A21">
         <v>16</v>
       </c>
@@ -3295,7 +3318,7 @@
         <v>0.40688300000000016</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="36" customHeight="1">
+    <row r="22" spans="1:24" ht="36" customHeight="1">
       <c r="A22" s="3">
         <v>17</v>
       </c>
@@ -3352,7 +3375,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="36">
+    <row r="23" spans="1:24" ht="36">
       <c r="A23" s="3">
         <v>18</v>
       </c>
@@ -3416,7 +3439,7 @@
         <v>0.19130999999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="36" customHeight="1">
+    <row r="24" spans="1:24" ht="36" customHeight="1">
       <c r="A24">
         <v>19</v>
       </c>
@@ -3469,7 +3492,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="36">
+    <row r="25" spans="1:24" ht="36">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -3525,7 +3548,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="36" customHeight="1">
+    <row r="26" spans="1:24" ht="36" customHeight="1">
       <c r="A26" s="3">
         <v>21</v>
       </c>
@@ -3578,7 +3601,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="36">
+    <row r="27" spans="1:24" ht="36">
       <c r="A27">
         <v>22</v>
       </c>
@@ -3637,7 +3660,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="36" customHeight="1">
+    <row r="28" spans="1:24" ht="36" customHeight="1">
       <c r="A28" s="3">
         <v>23</v>
       </c>
@@ -3690,7 +3713,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="36">
+    <row r="29" spans="1:24" ht="36">
       <c r="A29" s="3">
         <v>24</v>
       </c>
@@ -3746,7 +3769,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="36" customHeight="1">
+    <row r="30" spans="1:24" ht="36" customHeight="1">
       <c r="A30">
         <v>25</v>
       </c>
@@ -3811,7 +3834,7 @@
         <v>0.20245599999999978</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="36">
+    <row r="31" spans="1:24" ht="36">
       <c r="A31" s="3">
         <v>26</v>
       </c>
@@ -3875,7 +3898,7 @@
         <v>0.23524999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="36" customHeight="1">
+    <row r="32" spans="1:24" ht="36" customHeight="1">
       <c r="A32">
         <v>27</v>
       </c>
@@ -4621,9 +4644,9 @@
       <c r="S44" s="5">
         <v>1.2</v>
       </c>
-      <c r="W44" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="W44" s="34">
+        <f>MIN(O46:O87)</f>
+        <v>3.4280000000000088E-2</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="36">
@@ -7311,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="W87" s="34">
-        <f t="shared" si="15"/>
+        <f>IF(O87&lt;&gt;"", ABS(O87)*2 + ABS(P87)*1 + ABS(Q87)*3 + ABS(R87)*3, "")</f>
         <v>0.43626299999999985</v>
       </c>
       <c r="X87" s="37">
@@ -7323,13 +7346,11 @@
         <v>2.5397328294527375E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="20">
-      <c r="A88">
-        <v>83</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="88" spans="1:25" ht="32.5">
+      <c r="A88" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="3"/>
       <c r="C88" s="25"/>
       <c r="D88" s="29"/>
       <c r="G88" s="23"/>
@@ -7338,596 +7359,6905 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="26"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="9"/>
+      <c r="O88" s="4" t="str">
+        <f t="shared" ref="O88:O151" si="16">IF(AND(S88&lt;&gt;"",J88&lt;&gt;""),J88-S88,"")</f>
+        <v/>
+      </c>
+      <c r="P88" s="4" t="str">
+        <f t="shared" ref="P88:P151" si="17">IF(K88&lt;&gt;"",K88-$T$5,"")</f>
+        <v/>
+      </c>
+      <c r="Q88" s="4" t="str">
+        <f t="shared" ref="Q88:Q151" si="18">IF(L88&lt;&gt;"",L88-$U$5,"")</f>
+        <v/>
+      </c>
+      <c r="R88" s="9" t="str">
+        <f t="shared" ref="R88:R151" si="19">IF(M88&lt;&gt;"",M88-$V$5,"")</f>
+        <v/>
+      </c>
       <c r="S88" s="5"/>
-      <c r="W88" s="34"/>
-    </row>
-    <row r="89" spans="1:25" ht="20">
-      <c r="A89" s="3">
-        <v>84</v>
+      <c r="W88" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="X88" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="54">
+      <c r="A89">
+        <v>100</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="29"/>
-      <c r="G89" s="23"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="9"/>
-      <c r="S89" s="5"/>
-      <c r="W89" s="34"/>
+      <c r="C89" s="25">
+        <v>120</v>
+      </c>
+      <c r="D89" s="29">
+        <v>40</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>112</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1.2993300000000001</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1.67092</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0.117966</v>
+      </c>
+      <c r="M89" s="4">
+        <v>0.30845899999999998</v>
+      </c>
+      <c r="N89" s="26">
+        <v>3</v>
+      </c>
+      <c r="O89" s="4">
+        <f t="shared" si="16"/>
+        <v>9.933000000000014E-2</v>
+      </c>
+      <c r="P89" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.12407999999999997</v>
+      </c>
+      <c r="Q89" s="4">
+        <f t="shared" si="18"/>
+        <v>-5.6033999999999987E-2</v>
+      </c>
+      <c r="R89" s="9">
+        <f t="shared" si="19"/>
+        <v>9.7589999999999621E-3</v>
+      </c>
+      <c r="S89" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W89" s="46">
+        <f>IF(O89&lt;&gt;"", ABS(O89)*2 + ABS(P89)*1 + ABS(Q89)*3 + ABS(R89)*3, "")</f>
+        <v>0.52011900000000011</v>
+      </c>
+      <c r="X89" s="47">
+        <f t="array" ref="X89">IF(O89&lt;&gt;"",AVERAGE(ABS(O89:R89)),"")</f>
+        <v>7.2300750000000011E-2</v>
+      </c>
     </row>
     <row r="90" spans="1:25" ht="20">
       <c r="A90">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="29"/>
+      <c r="C90" s="25">
+        <v>120</v>
+      </c>
+      <c r="D90" s="29">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>112</v>
+      </c>
       <c r="G90" s="23"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="9"/>
-      <c r="S90" s="5"/>
-      <c r="W90" s="34"/>
+      <c r="J90" s="4">
+        <v>1.30139</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1.6939200000000001</v>
+      </c>
+      <c r="L90" s="4">
+        <v>0.15457799999999999</v>
+      </c>
+      <c r="M90" s="4">
+        <v>0.29502600000000001</v>
+      </c>
+      <c r="N90" s="26">
+        <v>4</v>
+      </c>
+      <c r="O90" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10139000000000009</v>
+      </c>
+      <c r="P90" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.10107999999999984</v>
+      </c>
+      <c r="Q90" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.9421999999999995E-2</v>
+      </c>
+      <c r="R90" s="9">
+        <f t="shared" si="19"/>
+        <v>-3.6740000000000106E-3</v>
+      </c>
+      <c r="S90" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W90" s="46">
+        <f t="shared" ref="W88:W151" si="20">IF(O90&lt;&gt;"", ABS(O90)*2 + ABS(P90)*1 + ABS(Q90)*3 + ABS(R90)*3, "")</f>
+        <v>0.37314800000000004</v>
+      </c>
+      <c r="X90" s="47">
+        <f t="array" ref="X90">IF(O90&lt;&gt;"",AVERAGE(ABS(O90:R90)),"")</f>
+        <v>5.6391499999999983E-2</v>
+      </c>
     </row>
     <row r="91" spans="1:25" ht="20">
-      <c r="A91" s="3">
-        <v>86</v>
+      <c r="A91">
+        <v>102</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="29"/>
+      <c r="C91" s="25">
+        <v>120</v>
+      </c>
+      <c r="D91" s="29">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>112</v>
+      </c>
       <c r="G91" s="23"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="9"/>
-      <c r="S91" s="5"/>
-      <c r="W91" s="34"/>
+      <c r="J91" s="4">
+        <v>1.3321099999999999</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1.6955899999999999</v>
+      </c>
+      <c r="L91" s="4">
+        <v>0.14110900000000001</v>
+      </c>
+      <c r="M91" s="4">
+        <v>0.27943699999999999</v>
+      </c>
+      <c r="N91" s="26">
+        <v>4</v>
+      </c>
+      <c r="O91" s="4">
+        <f t="shared" si="16"/>
+        <v>0.13210999999999995</v>
+      </c>
+      <c r="P91" s="4">
+        <f t="shared" si="17"/>
+        <v>-9.9409999999999998E-2</v>
+      </c>
+      <c r="Q91" s="4">
+        <f t="shared" si="18"/>
+        <v>-3.2890999999999976E-2</v>
+      </c>
+      <c r="R91" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.926300000000003E-2</v>
+      </c>
+      <c r="S91" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W91" s="46">
+        <f t="shared" si="20"/>
+        <v>0.52009199999999989</v>
+      </c>
+      <c r="X91" s="47">
+        <f t="array" ref="X91">IF(O91&lt;&gt;"",AVERAGE(ABS(O91:R91)),"")</f>
+        <v>7.0918499999999995E-2</v>
+      </c>
     </row>
     <row r="92" spans="1:25" ht="20">
       <c r="A92">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="29"/>
+      <c r="C92" s="25">
+        <v>120</v>
+      </c>
+      <c r="D92" s="29">
+        <v>40</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>112</v>
+      </c>
       <c r="G92" s="23"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="5"/>
-      <c r="W92" s="34"/>
+      <c r="J92" s="4">
+        <v>1.3093900000000001</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1.6805399999999999</v>
+      </c>
+      <c r="L92" s="4">
+        <v>0.137852</v>
+      </c>
+      <c r="M92" s="4">
+        <v>0.29892000000000002</v>
+      </c>
+      <c r="N92" s="26">
+        <v>4</v>
+      </c>
+      <c r="O92" s="4">
+        <f t="shared" si="16"/>
+        <v>0.1093900000000001</v>
+      </c>
+      <c r="P92" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.11446000000000001</v>
+      </c>
+      <c r="Q92" s="4">
+        <f t="shared" si="18"/>
+        <v>-3.6147999999999986E-2</v>
+      </c>
+      <c r="R92" s="9">
+        <f t="shared" si="19"/>
+        <v>2.1999999999999797E-4</v>
+      </c>
+      <c r="S92" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W92" s="46">
+        <f t="shared" si="20"/>
+        <v>0.44234400000000018</v>
+      </c>
+      <c r="X92" s="47">
+        <f t="array" ref="X92">IF(O92&lt;&gt;"",AVERAGE(ABS(O92:R92)),"")</f>
+        <v>6.5054500000000015E-2</v>
+      </c>
     </row>
     <row r="93" spans="1:25" ht="20">
-      <c r="A93" s="3">
-        <v>88</v>
+      <c r="A93">
+        <v>104</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="29"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="4" t="str">
-        <f t="shared" ref="O92:O105" si="16">IF(AND(S93&lt;&gt;"",J93&lt;&gt;""),J93-S93,"")</f>
-        <v/>
-      </c>
-      <c r="P93" s="4" t="str">
-        <f t="shared" ref="P92:P105" si="17">IF(K93&lt;&gt;"",K93-$T$5,"")</f>
-        <v/>
-      </c>
-      <c r="Q93" s="4" t="str">
-        <f t="shared" ref="Q92:Q105" si="18">IF(L93&lt;&gt;"",L93-$U$5,"")</f>
-        <v/>
-      </c>
-      <c r="R93" s="9" t="str">
-        <f t="shared" ref="R92:R105" si="19">IF(M93&lt;&gt;"",M93-$V$5,"")</f>
-        <v/>
-      </c>
-      <c r="S93" s="5"/>
-      <c r="W93" s="35"/>
+      <c r="C93" s="25">
+        <v>120</v>
+      </c>
+      <c r="D93" s="29">
+        <v>40</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>112</v>
+      </c>
+      <c r="G93" s="23"/>
+      <c r="J93" s="4">
+        <v>1.30033</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1.6934400000000001</v>
+      </c>
+      <c r="L93" s="4">
+        <v>0.122082</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0.310002</v>
+      </c>
+      <c r="N93" s="26">
+        <v>4</v>
+      </c>
+      <c r="O93" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10033000000000003</v>
+      </c>
+      <c r="P93" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.10155999999999987</v>
+      </c>
+      <c r="Q93" s="4">
+        <f t="shared" si="18"/>
+        <v>-5.1917999999999992E-2</v>
+      </c>
+      <c r="R93" s="9">
+        <f t="shared" si="19"/>
+        <v>1.1301999999999979E-2</v>
+      </c>
+      <c r="S93" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W93" s="46">
+        <f t="shared" si="20"/>
+        <v>0.49187999999999982</v>
+      </c>
+      <c r="X93" s="47">
+        <f t="array" ref="X93">IF(O93&lt;&gt;"",AVERAGE(ABS(O93:R93)),"")</f>
+        <v>6.6277499999999975E-2</v>
+      </c>
     </row>
     <row r="94" spans="1:25" ht="20">
       <c r="A94">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="29"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="26"/>
-      <c r="O94" s="4" t="str">
+      <c r="C94" s="25">
+        <v>120</v>
+      </c>
+      <c r="D94" s="29">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>112</v>
+      </c>
+      <c r="G94" s="23"/>
+      <c r="J94" s="4">
+        <v>1.30183</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1.67065</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0.13597400000000001</v>
+      </c>
+      <c r="M94" s="4">
+        <v>0.30416199999999999</v>
+      </c>
+      <c r="N94" s="26">
+        <v>4</v>
+      </c>
+      <c r="O94" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P94" s="4" t="str">
+        <v>0.10183000000000009</v>
+      </c>
+      <c r="P94" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q94" s="4" t="str">
+        <v>-0.12434999999999996</v>
+      </c>
+      <c r="Q94" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R94" s="9" t="str">
+        <v>-3.8025999999999976E-2</v>
+      </c>
+      <c r="R94" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S94" s="5"/>
-      <c r="W94" s="35"/>
+        <v>5.4619999999999669E-3</v>
+      </c>
+      <c r="S94" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W94" s="46">
+        <f t="shared" si="20"/>
+        <v>0.45847399999999994</v>
+      </c>
+      <c r="X94" s="47">
+        <f t="array" ref="X94">IF(O94&lt;&gt;"",AVERAGE(ABS(O94:R94)),"")</f>
+        <v>6.7417000000000005E-2</v>
+      </c>
     </row>
     <row r="95" spans="1:25" ht="20">
-      <c r="A95" s="3">
-        <v>90</v>
+      <c r="A95">
+        <v>106</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="29"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="4" t="str">
+      <c r="C95" s="25">
+        <v>120</v>
+      </c>
+      <c r="D95" s="29">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" s="23"/>
+      <c r="J95" s="4">
+        <v>1.2972300000000001</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1.6807300000000001</v>
+      </c>
+      <c r="L95" s="4">
+        <v>9.65752E-2</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0.31729400000000002</v>
+      </c>
+      <c r="N95" s="26">
+        <v>4</v>
+      </c>
+      <c r="O95" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P95" s="4" t="str">
+        <v>9.723000000000015E-2</v>
+      </c>
+      <c r="P95" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q95" s="4" t="str">
+        <v>-0.11426999999999987</v>
+      </c>
+      <c r="Q95" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R95" s="9" t="str">
+        <v>-7.7424799999999988E-2</v>
+      </c>
+      <c r="R95" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S95" s="5"/>
-      <c r="W95" s="35"/>
+        <v>1.8593999999999999E-2</v>
+      </c>
+      <c r="S95" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W95" s="46">
+        <f t="shared" si="20"/>
+        <v>0.59678640000000016</v>
+      </c>
+      <c r="X95" s="47">
+        <f t="array" ref="X95">IF(O95&lt;&gt;"",AVERAGE(ABS(O95:R95)),"")</f>
+        <v>7.6879699999999995E-2</v>
+      </c>
     </row>
     <row r="96" spans="1:25" ht="20">
       <c r="A96">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="29"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="4" t="str">
+      <c r="C96" s="25">
+        <v>120</v>
+      </c>
+      <c r="D96" s="29">
+        <v>40</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" s="23"/>
+      <c r="J96" s="4">
+        <v>1.30813</v>
+      </c>
+      <c r="K96" s="4">
+        <v>1.6951700000000001</v>
+      </c>
+      <c r="L96" s="4">
+        <v>0.118663</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0.30999399999999999</v>
+      </c>
+      <c r="N96" s="26">
+        <v>3</v>
+      </c>
+      <c r="O96" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P96" s="4" t="str">
+        <v>0.10813000000000006</v>
+      </c>
+      <c r="P96" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q96" s="4" t="str">
+        <v>-9.9829999999999863E-2</v>
+      </c>
+      <c r="Q96" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R96" s="9" t="str">
+        <v>-5.5336999999999983E-2</v>
+      </c>
+      <c r="R96" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S96" s="5"/>
-      <c r="W96" s="35"/>
-    </row>
-    <row r="97" spans="1:23" ht="20">
-      <c r="A97" s="3">
-        <v>92</v>
+        <v>1.1293999999999971E-2</v>
+      </c>
+      <c r="S96" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W96" s="46">
+        <f t="shared" si="20"/>
+        <v>0.51598299999999986</v>
+      </c>
+      <c r="X96" s="47">
+        <f t="array" ref="X96">IF(O96&lt;&gt;"",AVERAGE(ABS(O96:R96)),"")</f>
+        <v>6.8647749999999966E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="20">
+      <c r="A97">
+        <v>108</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C97" s="25"/>
-      <c r="D97" s="29"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="26"/>
-      <c r="O97" s="4" t="str">
+      <c r="C97" s="25">
+        <v>120</v>
+      </c>
+      <c r="D97" s="29">
+        <v>40</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>112</v>
+      </c>
+      <c r="G97" s="23"/>
+      <c r="J97" s="4">
+        <v>1.30203</v>
+      </c>
+      <c r="K97" s="4">
+        <v>1.6951400000000001</v>
+      </c>
+      <c r="L97" s="4">
+        <v>0.12173299999999999</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0.30851899999999999</v>
+      </c>
+      <c r="N97" s="26">
+        <v>4</v>
+      </c>
+      <c r="O97" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P97" s="4" t="str">
+        <v>0.10203000000000007</v>
+      </c>
+      <c r="P97" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q97" s="4" t="str">
+        <v>-9.9859999999999838E-2</v>
+      </c>
+      <c r="Q97" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R97" s="9" t="str">
+        <v>-5.2266999999999994E-2</v>
+      </c>
+      <c r="R97" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S97" s="5"/>
-      <c r="W97" s="35"/>
-    </row>
-    <row r="98" spans="1:23" ht="20">
+        <v>9.8189999999999666E-3</v>
+      </c>
+      <c r="S97" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W97" s="46">
+        <f t="shared" si="20"/>
+        <v>0.49017799999999984</v>
+      </c>
+      <c r="X97" s="47">
+        <f t="array" ref="X97">IF(O97&lt;&gt;"",AVERAGE(ABS(O97:R97)),"")</f>
+        <v>6.5993999999999969E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27" ht="20">
       <c r="A98">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="29"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="4" t="str">
+      <c r="C98" s="25">
+        <v>120</v>
+      </c>
+      <c r="D98" s="29">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>112</v>
+      </c>
+      <c r="G98" s="23"/>
+      <c r="J98" s="4">
+        <v>1.3037000000000001</v>
+      </c>
+      <c r="K98" s="4">
+        <v>1.67988</v>
+      </c>
+      <c r="L98" s="4">
+        <v>0.101003</v>
+      </c>
+      <c r="M98" s="4">
+        <v>0.31810699999999997</v>
+      </c>
+      <c r="N98" s="26">
+        <v>4</v>
+      </c>
+      <c r="O98" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P98" s="4" t="str">
+        <v>0.10370000000000013</v>
+      </c>
+      <c r="P98" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q98" s="4" t="str">
+        <v>-0.11511999999999989</v>
+      </c>
+      <c r="Q98" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R98" s="9" t="str">
+        <v>-7.2996999999999992E-2</v>
+      </c>
+      <c r="R98" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S98" s="5"/>
-      <c r="W98" s="35"/>
-    </row>
-    <row r="99" spans="1:23" ht="20">
-      <c r="A99" s="3">
-        <v>94</v>
+        <v>1.9406999999999952E-2</v>
+      </c>
+      <c r="S98" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W98" s="46">
+        <f t="shared" si="20"/>
+        <v>0.59973199999999993</v>
+      </c>
+      <c r="X98" s="47">
+        <f t="array" ref="X98">IF(O98&lt;&gt;"",AVERAGE(ABS(O98:R98)),"")</f>
+        <v>7.7805999999999986E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" ht="20">
+      <c r="A99">
+        <v>110</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="29"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="26"/>
-      <c r="O99" s="4" t="str">
+      <c r="C99" s="25">
+        <v>120</v>
+      </c>
+      <c r="D99" s="29">
+        <v>40</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" s="23"/>
+      <c r="J99" s="4">
+        <v>1.2990900000000001</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1.6892199999999999</v>
+      </c>
+      <c r="L99" s="4">
+        <v>9.8203799999999994E-2</v>
+      </c>
+      <c r="M99" s="4">
+        <v>0.31674999999999998</v>
+      </c>
+      <c r="N99" s="26">
+        <v>4</v>
+      </c>
+      <c r="O99" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P99" s="4" t="str">
+        <v>9.9090000000000122E-2</v>
+      </c>
+      <c r="P99" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q99" s="4" t="str">
+        <v>-0.10577999999999999</v>
+      </c>
+      <c r="Q99" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R99" s="9" t="str">
+        <v>-7.5796199999999994E-2</v>
+      </c>
+      <c r="R99" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S99" s="5"/>
-      <c r="W99" s="35"/>
-    </row>
-    <row r="100" spans="1:23" ht="20">
+        <v>1.8049999999999955E-2</v>
+      </c>
+      <c r="S99" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W99" s="46">
+        <f t="shared" si="20"/>
+        <v>0.5854986000000002</v>
+      </c>
+      <c r="X99" s="47">
+        <f t="array" ref="X99">IF(O99&lt;&gt;"",AVERAGE(ABS(O99:R99)),"")</f>
+        <v>7.4679050000000011E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" ht="20">
       <c r="A100">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="29"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="4" t="str">
+      <c r="C100" s="25">
+        <v>120</v>
+      </c>
+      <c r="D100" s="29">
+        <v>40</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>112</v>
+      </c>
+      <c r="G100" s="23"/>
+      <c r="J100" s="4">
+        <v>1.3124100000000001</v>
+      </c>
+      <c r="K100" s="4">
+        <v>1.7028099999999999</v>
+      </c>
+      <c r="L100" s="4">
+        <v>0.148641</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0.29780000000000001</v>
+      </c>
+      <c r="N100" s="26">
+        <v>4</v>
+      </c>
+      <c r="O100" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P100" s="4" t="str">
+        <v>0.11241000000000012</v>
+      </c>
+      <c r="P100" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q100" s="4" t="str">
+        <v>-9.2189999999999994E-2</v>
+      </c>
+      <c r="Q100" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R100" s="9" t="str">
+        <v>-2.5358999999999993E-2</v>
+      </c>
+      <c r="R100" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S100" s="5"/>
-      <c r="W100" s="35"/>
-    </row>
-    <row r="101" spans="1:23" ht="20">
-      <c r="A101" s="3">
-        <v>96</v>
+        <v>-9.000000000000119E-4</v>
+      </c>
+      <c r="S100" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W100" s="46">
+        <f t="shared" si="20"/>
+        <v>0.39578700000000022</v>
+      </c>
+      <c r="X100" s="47">
+        <f t="array" ref="X100">IF(O100&lt;&gt;"",AVERAGE(ABS(O100:R100)),"")</f>
+        <v>5.771475000000003E-2</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" ht="20">
+      <c r="A101">
+        <v>112</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="29"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="4" t="str">
+      <c r="C101" s="25">
+        <v>120</v>
+      </c>
+      <c r="D101" s="29">
+        <v>40</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>112</v>
+      </c>
+      <c r="G101" s="23"/>
+      <c r="J101" s="4">
+        <v>1.30667</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1.6934100000000001</v>
+      </c>
+      <c r="L101" s="4">
+        <v>0.12416099999999999</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0.31154199999999999</v>
+      </c>
+      <c r="N101" s="26">
+        <v>3</v>
+      </c>
+      <c r="O101" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P101" s="4" t="str">
+        <v>0.10667000000000004</v>
+      </c>
+      <c r="P101" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q101" s="4" t="str">
+        <v>-0.10158999999999985</v>
+      </c>
+      <c r="Q101" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R101" s="9" t="str">
+        <v>-4.9838999999999994E-2</v>
+      </c>
+      <c r="R101" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S101" s="5"/>
-      <c r="W101" s="35"/>
-    </row>
-    <row r="102" spans="1:23" ht="20">
+        <v>1.2841999999999965E-2</v>
+      </c>
+      <c r="S101" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W101" s="46">
+        <f t="shared" si="20"/>
+        <v>0.50297299999999989</v>
+      </c>
+      <c r="X101" s="47">
+        <f t="array" ref="X101">IF(O101&lt;&gt;"",AVERAGE(ABS(O101:R101)),"")</f>
+        <v>6.7735249999999955E-2</v>
+      </c>
+      <c r="Y101" s="37">
+        <f>AVERAGE(W89:W101)</f>
+        <v>0.49946115384615386</v>
+      </c>
+      <c r="Z101" s="37">
+        <f>AVERAGE(X89:X101)</f>
+        <v>6.8293557692307688E-2</v>
+      </c>
+      <c r="AA101">
+        <f>_xlfn.STDEV.P(X89:X101)</f>
+        <v>6.2175337319256355E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" ht="20">
       <c r="A102">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="29"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="4" t="str">
+      <c r="C102" s="25">
+        <v>120</v>
+      </c>
+      <c r="D102" s="29">
+        <v>40</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>113</v>
+      </c>
+      <c r="G102" s="23"/>
+      <c r="J102" s="4">
+        <v>1.29861</v>
+      </c>
+      <c r="K102" s="4">
+        <v>1.68764</v>
+      </c>
+      <c r="L102" s="4">
+        <v>0.14980499999999999</v>
+      </c>
+      <c r="M102" s="4">
+        <v>0.29650599999999999</v>
+      </c>
+      <c r="N102" s="26">
+        <v>4</v>
+      </c>
+      <c r="O102" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P102" s="4" t="str">
+        <v>9.8610000000000086E-2</v>
+      </c>
+      <c r="P102" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q102" s="4" t="str">
+        <v>-0.1073599999999999</v>
+      </c>
+      <c r="Q102" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R102" s="9" t="str">
+        <v>-2.4194999999999994E-2</v>
+      </c>
+      <c r="R102" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S102" s="5"/>
-      <c r="W102" s="35"/>
-    </row>
-    <row r="103" spans="1:23" ht="20">
-      <c r="A103" s="3">
-        <v>98</v>
+        <v>-2.1940000000000293E-3</v>
+      </c>
+      <c r="S102" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W102" s="46">
+        <f t="shared" si="20"/>
+        <v>0.38374700000000017</v>
+      </c>
+      <c r="X102" s="47">
+        <f t="array" ref="X102">IF(O102&lt;&gt;"",AVERAGE(ABS(O102:R102)),"")</f>
+        <v>5.8089750000000002E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" ht="20">
+      <c r="A103">
+        <v>116</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="29"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="4" t="str">
+      <c r="C103" s="25">
+        <v>120</v>
+      </c>
+      <c r="D103" s="29">
+        <v>40</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>113</v>
+      </c>
+      <c r="G103" s="23"/>
+      <c r="J103" s="4">
+        <v>1.331</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1.71014</v>
+      </c>
+      <c r="L103" s="4">
+        <v>0.148205</v>
+      </c>
+      <c r="M103" s="4">
+        <v>0.26974900000000002</v>
+      </c>
+      <c r="N103" s="26">
+        <v>3</v>
+      </c>
+      <c r="O103" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P103" s="4" t="str">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="P103" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q103" s="4" t="str">
+        <v>-8.4859999999999935E-2</v>
+      </c>
+      <c r="Q103" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R103" s="9" t="str">
+        <v>-2.5794999999999985E-2</v>
+      </c>
+      <c r="R103" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S103" s="5"/>
-      <c r="W103" s="35"/>
-    </row>
-    <row r="104" spans="1:23" ht="20">
+        <v>-2.8951000000000005E-2</v>
+      </c>
+      <c r="S103" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W103" s="46">
+        <f t="shared" si="20"/>
+        <v>0.51109799999999983</v>
+      </c>
+      <c r="X103" s="47">
+        <f t="array" ref="X103">IF(O103&lt;&gt;"",AVERAGE(ABS(O103:R103)),"")</f>
+        <v>6.7651499999999976E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" ht="20">
       <c r="A104">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="29"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="26"/>
-      <c r="O104" s="4" t="str">
+      <c r="C104" s="25">
+        <v>120</v>
+      </c>
+      <c r="D104" s="29">
+        <v>40</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>113</v>
+      </c>
+      <c r="G104" s="23"/>
+      <c r="J104" s="4">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="K104" s="4">
+        <v>1.73306</v>
+      </c>
+      <c r="L104" s="4">
+        <v>0.11297500000000001</v>
+      </c>
+      <c r="M104" s="4">
+        <v>0.29550599999999999</v>
+      </c>
+      <c r="N104" s="26">
+        <v>4</v>
+      </c>
+      <c r="O104" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P104" s="4" t="str">
+        <v>0.13200000000000012</v>
+      </c>
+      <c r="P104" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q104" s="4" t="str">
+        <v>-6.1939999999999884E-2</v>
+      </c>
+      <c r="Q104" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R104" s="9" t="str">
+        <v>-6.1024999999999982E-2</v>
+      </c>
+      <c r="R104" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S104" s="5"/>
-      <c r="W104" s="35"/>
-    </row>
-    <row r="105" spans="1:23" ht="20">
-      <c r="A105" s="3">
-        <v>100</v>
+        <v>-3.1940000000000301E-3</v>
+      </c>
+      <c r="S104" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W104" s="46">
+        <f t="shared" si="20"/>
+        <v>0.51859700000000009</v>
+      </c>
+      <c r="X104" s="47">
+        <f t="array" ref="X104">IF(O104&lt;&gt;"",AVERAGE(ABS(O104:R104)),"")</f>
+        <v>6.4539750000000007E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="20">
+      <c r="A105">
+        <v>118</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="29"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="26"/>
-      <c r="O105" s="4" t="str">
+      <c r="C105" s="25">
+        <v>120</v>
+      </c>
+      <c r="D105" s="29">
+        <v>40</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>113</v>
+      </c>
+      <c r="G105" s="23"/>
+      <c r="J105" s="4">
+        <v>1.33934</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1.62181</v>
+      </c>
+      <c r="L105" s="4">
+        <v>0.12994600000000001</v>
+      </c>
+      <c r="M105" s="4">
+        <v>0.28767900000000002</v>
+      </c>
+      <c r="N105" s="26">
+        <v>3</v>
+      </c>
+      <c r="O105" s="4">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P105" s="4" t="str">
+        <v>0.13934000000000002</v>
+      </c>
+      <c r="P105" s="4">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q105" s="4" t="str">
+        <v>-0.17318999999999996</v>
+      </c>
+      <c r="Q105" s="4">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="R105" s="9" t="str">
+        <v>-4.4053999999999982E-2</v>
+      </c>
+      <c r="R105" s="9">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="S105" s="5"/>
-      <c r="W105" s="35"/>
+        <v>-1.1021000000000003E-2</v>
+      </c>
+      <c r="S105" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W105" s="46">
+        <f t="shared" si="20"/>
+        <v>0.61709499999999995</v>
+      </c>
+      <c r="X105" s="47">
+        <f t="array" ref="X105">IF(O105&lt;&gt;"",AVERAGE(ABS(O105:R105)),"")</f>
+        <v>9.190124999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" ht="20">
+      <c r="A106">
+        <v>119</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="25">
+        <v>120</v>
+      </c>
+      <c r="D106" s="29">
+        <v>40</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" s="23"/>
+      <c r="J106" s="4">
+        <v>1.3233900000000001</v>
+      </c>
+      <c r="K106" s="4">
+        <v>1.7420800000000001</v>
+      </c>
+      <c r="L106" s="4">
+        <v>9.9618200000000004E-2</v>
+      </c>
+      <c r="M106" s="4">
+        <v>0.30631799999999998</v>
+      </c>
+      <c r="N106" s="26">
+        <v>4</v>
+      </c>
+      <c r="O106" s="4">
+        <f t="shared" si="16"/>
+        <v>0.12339000000000011</v>
+      </c>
+      <c r="P106" s="4">
+        <f t="shared" si="17"/>
+        <v>-5.2919999999999856E-2</v>
+      </c>
+      <c r="Q106" s="4">
+        <f t="shared" si="18"/>
+        <v>-7.4381799999999984E-2</v>
+      </c>
+      <c r="R106" s="9">
+        <f t="shared" si="19"/>
+        <v>7.6179999999999581E-3</v>
+      </c>
+      <c r="S106" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W106" s="46">
+        <f t="shared" si="20"/>
+        <v>0.54569939999999995</v>
+      </c>
+      <c r="X106" s="47">
+        <f t="array" ref="X106">IF(O106&lt;&gt;"",AVERAGE(ABS(O106:R106)),"")</f>
+        <v>6.4577449999999981E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" ht="20">
+      <c r="A107">
+        <v>120</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="25">
+        <v>120</v>
+      </c>
+      <c r="D107" s="29">
+        <v>40</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>113</v>
+      </c>
+      <c r="G107" s="23"/>
+      <c r="J107" s="4">
+        <v>1.2934000000000001</v>
+      </c>
+      <c r="K107" s="4">
+        <v>1.7031700000000001</v>
+      </c>
+      <c r="L107" s="4">
+        <v>9.6706E-2</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0.31752200000000003</v>
+      </c>
+      <c r="N107" s="26">
+        <v>4</v>
+      </c>
+      <c r="O107" s="4">
+        <f t="shared" si="16"/>
+        <v>9.340000000000015E-2</v>
+      </c>
+      <c r="P107" s="4">
+        <f t="shared" si="17"/>
+        <v>-9.1829999999999856E-2</v>
+      </c>
+      <c r="Q107" s="4">
+        <f t="shared" si="18"/>
+        <v>-7.7293999999999988E-2</v>
+      </c>
+      <c r="R107" s="9">
+        <f t="shared" si="19"/>
+        <v>1.8822000000000005E-2</v>
+      </c>
+      <c r="S107" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W107" s="46">
+        <f t="shared" si="20"/>
+        <v>0.56697800000000009</v>
+      </c>
+      <c r="X107" s="47">
+        <f t="array" ref="X107">IF(O107&lt;&gt;"",AVERAGE(ABS(O107:R107)),"")</f>
+        <v>7.0336499999999996E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" ht="20">
+      <c r="A108">
+        <v>121</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="25">
+        <v>120</v>
+      </c>
+      <c r="D108" s="29">
+        <v>40</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>113</v>
+      </c>
+      <c r="G108" s="23"/>
+      <c r="J108" s="4">
+        <v>1.29304</v>
+      </c>
+      <c r="K108" s="4">
+        <v>1.66808</v>
+      </c>
+      <c r="L108" s="4">
+        <v>9.7216300000000005E-2</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0.31740600000000002</v>
+      </c>
+      <c r="N108" s="26">
+        <v>4</v>
+      </c>
+      <c r="O108" s="4">
+        <f t="shared" si="16"/>
+        <v>9.3040000000000012E-2</v>
+      </c>
+      <c r="P108" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.12691999999999992</v>
+      </c>
+      <c r="Q108" s="4">
+        <f t="shared" si="18"/>
+        <v>-7.6783699999999983E-2</v>
+      </c>
+      <c r="R108" s="9">
+        <f t="shared" si="19"/>
+        <v>1.8706E-2</v>
+      </c>
+      <c r="S108" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W108" s="46">
+        <f t="shared" si="20"/>
+        <v>0.59946909999999987</v>
+      </c>
+      <c r="X108" s="47">
+        <f t="array" ref="X108">IF(O108&lt;&gt;"",AVERAGE(ABS(O108:R108)),"")</f>
+        <v>7.8862424999999986E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" ht="20">
+      <c r="A109">
+        <v>122</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="25">
+        <v>120</v>
+      </c>
+      <c r="D109" s="29">
+        <v>40</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>113</v>
+      </c>
+      <c r="G109" s="23"/>
+      <c r="J109" s="4">
+        <v>1.3026</v>
+      </c>
+      <c r="K109" s="4">
+        <v>1.68807</v>
+      </c>
+      <c r="L109" s="4">
+        <v>0.14672099999999999</v>
+      </c>
+      <c r="M109" s="4">
+        <v>0.29757800000000001</v>
+      </c>
+      <c r="N109" s="26">
+        <v>4</v>
+      </c>
+      <c r="O109" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10260000000000002</v>
+      </c>
+      <c r="P109" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.10692999999999997</v>
+      </c>
+      <c r="Q109" s="4">
+        <f t="shared" si="18"/>
+        <v>-2.7278999999999998E-2</v>
+      </c>
+      <c r="R109" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.1220000000000119E-3</v>
+      </c>
+      <c r="S109" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W109" s="46">
+        <f t="shared" si="20"/>
+        <v>0.39733300000000005</v>
+      </c>
+      <c r="X109" s="47">
+        <f t="array" ref="X109">IF(O109&lt;&gt;"",AVERAGE(ABS(O109:R109)),"")</f>
+        <v>5.9482750000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" ht="20">
+      <c r="A110">
+        <v>123</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="25">
+        <v>120</v>
+      </c>
+      <c r="D110" s="29">
+        <v>40</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>113</v>
+      </c>
+      <c r="G110" s="23"/>
+      <c r="J110" s="4">
+        <v>1.33405</v>
+      </c>
+      <c r="K110" s="4">
+        <v>1.71445</v>
+      </c>
+      <c r="L110" s="4">
+        <v>0.136849</v>
+      </c>
+      <c r="M110" s="4">
+        <v>0.291995</v>
+      </c>
+      <c r="N110" s="26">
+        <v>3</v>
+      </c>
+      <c r="O110" s="4">
+        <f t="shared" si="16"/>
+        <v>0.13405</v>
+      </c>
+      <c r="P110" s="4">
+        <f t="shared" si="17"/>
+        <v>-8.0549999999999899E-2</v>
+      </c>
+      <c r="Q110" s="4">
+        <f t="shared" si="18"/>
+        <v>-3.715099999999999E-2</v>
+      </c>
+      <c r="R110" s="9">
+        <f t="shared" si="19"/>
+        <v>-6.7050000000000165E-3</v>
+      </c>
+      <c r="S110" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W110" s="46">
+        <f t="shared" si="20"/>
+        <v>0.48021799999999992</v>
+      </c>
+      <c r="X110" s="47">
+        <f t="array" ref="X110">IF(O110&lt;&gt;"",AVERAGE(ABS(O110:R110)),"")</f>
+        <v>6.4613999999999977E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" ht="20">
+      <c r="A111">
+        <v>124</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="25">
+        <v>120</v>
+      </c>
+      <c r="D111" s="29">
+        <v>40</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>113</v>
+      </c>
+      <c r="G111" s="23"/>
+      <c r="J111" s="4">
+        <v>1.3065100000000001</v>
+      </c>
+      <c r="K111" s="4">
+        <v>1.64439</v>
+      </c>
+      <c r="L111" s="4">
+        <v>0.13098599999999999</v>
+      </c>
+      <c r="M111" s="4">
+        <v>0.30168299999999998</v>
+      </c>
+      <c r="N111" s="26">
+        <v>3</v>
+      </c>
+      <c r="O111" s="4">
+        <f t="shared" si="16"/>
+        <v>0.1065100000000001</v>
+      </c>
+      <c r="P111" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.15060999999999991</v>
+      </c>
+      <c r="Q111" s="4">
+        <f t="shared" si="18"/>
+        <v>-4.3013999999999997E-2</v>
+      </c>
+      <c r="R111" s="9">
+        <f t="shared" si="19"/>
+        <v>2.9829999999999579E-3</v>
+      </c>
+      <c r="S111" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W111" s="46">
+        <f t="shared" si="20"/>
+        <v>0.50162099999999998</v>
+      </c>
+      <c r="X111" s="47">
+        <f t="array" ref="X111">IF(O111&lt;&gt;"",AVERAGE(ABS(O111:R111)),"")</f>
+        <v>7.5779249999999992E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" ht="20">
+      <c r="A112">
+        <v>125</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="25">
+        <v>120</v>
+      </c>
+      <c r="D112" s="29">
+        <v>40</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>113</v>
+      </c>
+      <c r="G112" s="23"/>
+      <c r="J112" s="4">
+        <v>1.29562</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1.6978200000000001</v>
+      </c>
+      <c r="L112" s="4">
+        <v>0.14077200000000001</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0.30208699999999999</v>
+      </c>
+      <c r="N112" s="26">
+        <v>4</v>
+      </c>
+      <c r="O112" s="4">
+        <f t="shared" si="16"/>
+        <v>9.5620000000000038E-2</v>
+      </c>
+      <c r="P112" s="4">
+        <f t="shared" si="17"/>
+        <v>-9.7179999999999822E-2</v>
+      </c>
+      <c r="Q112" s="4">
+        <f t="shared" si="18"/>
+        <v>-3.322799999999998E-2</v>
+      </c>
+      <c r="R112" s="9">
+        <f t="shared" si="19"/>
+        <v>3.3869999999999734E-3</v>
+      </c>
+      <c r="S112" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W112" s="46">
+        <f t="shared" si="20"/>
+        <v>0.39826499999999976</v>
+      </c>
+      <c r="X112" s="47">
+        <f t="array" ref="X112">IF(O112&lt;&gt;"",AVERAGE(ABS(O112:R112)),"")</f>
+        <v>5.7353749999999953E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" ht="20">
+      <c r="A113">
+        <v>126</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="25">
+        <v>120</v>
+      </c>
+      <c r="D113" s="29">
+        <v>40</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>113</v>
+      </c>
+      <c r="G113" s="23"/>
+      <c r="J113" s="4">
+        <v>1.30243</v>
+      </c>
+      <c r="K113" s="4">
+        <v>1.6772</v>
+      </c>
+      <c r="L113" s="4">
+        <v>0.146257</v>
+      </c>
+      <c r="M113" s="4">
+        <v>0.29869699999999999</v>
+      </c>
+      <c r="N113" s="26">
+        <v>4</v>
+      </c>
+      <c r="O113" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10243000000000002</v>
+      </c>
+      <c r="P113" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.1177999999999999</v>
+      </c>
+      <c r="Q113" s="4">
+        <f t="shared" si="18"/>
+        <v>-2.774299999999999E-2</v>
+      </c>
+      <c r="R113" s="9">
+        <f t="shared" si="19"/>
+        <v>-3.0000000000307558E-6</v>
+      </c>
+      <c r="S113" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W113" s="46">
+        <f t="shared" si="20"/>
+        <v>0.40589800000000004</v>
+      </c>
+      <c r="X113" s="47">
+        <f t="array" ref="X113">IF(O113&lt;&gt;"",AVERAGE(ABS(O113:R113)),"")</f>
+        <v>6.1993999999999987E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" ht="20">
+      <c r="A114">
+        <v>127</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="25">
+        <v>120</v>
+      </c>
+      <c r="D114" s="29">
+        <v>40</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>113</v>
+      </c>
+      <c r="G114" s="23"/>
+      <c r="J114" s="4">
+        <v>1.3279799999999999</v>
+      </c>
+      <c r="K114" s="4">
+        <v>1.6822699999999999</v>
+      </c>
+      <c r="L114" s="4">
+        <v>0.118773</v>
+      </c>
+      <c r="M114" s="4">
+        <v>0.30055399999999999</v>
+      </c>
+      <c r="N114" s="26">
+        <v>4</v>
+      </c>
+      <c r="O114" s="4">
+        <f t="shared" si="16"/>
+        <v>0.12797999999999998</v>
+      </c>
+      <c r="P114" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.11273</v>
+      </c>
+      <c r="Q114" s="4">
+        <f t="shared" si="18"/>
+        <v>-5.5226999999999984E-2</v>
+      </c>
+      <c r="R114" s="9">
+        <f t="shared" si="19"/>
+        <v>1.8539999999999668E-3</v>
+      </c>
+      <c r="S114" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W114" s="46">
+        <f t="shared" si="20"/>
+        <v>0.53993299999999977</v>
+      </c>
+      <c r="X114" s="47">
+        <f t="array" ref="X114">IF(O114&lt;&gt;"",AVERAGE(ABS(O114:R114)),"")</f>
+        <v>7.4447749999999979E-2</v>
+      </c>
+      <c r="Y114" s="37">
+        <f>AVERAGE(W102:W114)</f>
+        <v>0.49738088461538449</v>
+      </c>
+      <c r="Z114" s="37">
+        <f>AVERAGE(X102:X114)</f>
+        <v>6.8433086538461529E-2</v>
+      </c>
+      <c r="AA114">
+        <f>_xlfn.STDEV.P(X102:X114)</f>
+        <v>9.4046553303435455E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" ht="20">
+      <c r="A115">
+        <v>130</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="25">
+        <v>120</v>
+      </c>
+      <c r="D115" s="29">
+        <v>40</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>114</v>
+      </c>
+      <c r="G115" s="23"/>
+      <c r="J115" s="4">
+        <v>1.2924599999999999</v>
+      </c>
+      <c r="K115" s="4">
+        <v>1.7463500000000001</v>
+      </c>
+      <c r="L115" s="4">
+        <v>0.16948299999999999</v>
+      </c>
+      <c r="M115" s="4">
+        <v>0.28122999999999998</v>
+      </c>
+      <c r="N115" s="26">
+        <v>4</v>
+      </c>
+      <c r="O115" s="4">
+        <f t="shared" si="16"/>
+        <v>9.2459999999999987E-2</v>
+      </c>
+      <c r="P115" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.864999999999986E-2</v>
+      </c>
+      <c r="Q115" s="4">
+        <f t="shared" si="18"/>
+        <v>-4.5169999999999932E-3</v>
+      </c>
+      <c r="R115" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.7470000000000041E-2</v>
+      </c>
+      <c r="S115" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W115" s="46">
+        <f t="shared" si="20"/>
+        <v>0.29953099999999994</v>
+      </c>
+      <c r="X115" s="47">
+        <f t="array" ref="X115">IF(O115&lt;&gt;"",AVERAGE(ABS(O115:R115)),"")</f>
+        <v>4.077424999999997E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" ht="20">
+      <c r="A116">
+        <v>131</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="25">
+        <v>120</v>
+      </c>
+      <c r="D116" s="29">
+        <v>40</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>114</v>
+      </c>
+      <c r="G116" s="23"/>
+      <c r="J116" s="4">
+        <v>1.3032300000000001</v>
+      </c>
+      <c r="K116" s="4">
+        <v>1.7231799999999999</v>
+      </c>
+      <c r="L116" s="4">
+        <v>0.16388900000000001</v>
+      </c>
+      <c r="M116" s="4">
+        <v>0.28849999999999998</v>
+      </c>
+      <c r="N116" s="26">
+        <v>4</v>
+      </c>
+      <c r="O116" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10323000000000015</v>
+      </c>
+      <c r="P116" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.1819999999999995E-2</v>
+      </c>
+      <c r="Q116" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.0110999999999981E-2</v>
+      </c>
+      <c r="R116" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.0200000000000042E-2</v>
+      </c>
+      <c r="S116" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W116" s="46">
+        <f t="shared" si="20"/>
+        <v>0.33921300000000038</v>
+      </c>
+      <c r="X116" s="47">
+        <f t="array" ref="X116">IF(O116&lt;&gt;"",AVERAGE(ABS(O116:R116)),"")</f>
+        <v>4.8840250000000043E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" ht="20">
+      <c r="A117">
+        <v>132</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" s="25">
+        <v>120</v>
+      </c>
+      <c r="D117" s="29">
+        <v>40</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>114</v>
+      </c>
+      <c r="G117" s="23"/>
+      <c r="J117" s="4">
+        <v>1.3275300000000001</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1.74454</v>
+      </c>
+      <c r="L117" s="4">
+        <v>0.17865700000000001</v>
+      </c>
+      <c r="M117" s="4">
+        <v>0.26272800000000002</v>
+      </c>
+      <c r="N117" s="26">
+        <v>4</v>
+      </c>
+      <c r="O117" s="4">
+        <f t="shared" si="16"/>
+        <v>0.12753000000000014</v>
+      </c>
+      <c r="P117" s="4">
+        <f t="shared" si="17"/>
+        <v>-5.0459999999999949E-2</v>
+      </c>
+      <c r="Q117" s="4">
+        <f t="shared" si="18"/>
+        <v>4.6570000000000222E-3</v>
+      </c>
+      <c r="R117" s="9">
+        <f t="shared" si="19"/>
+        <v>-3.5972000000000004E-2</v>
+      </c>
+      <c r="S117" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W117" s="46">
+        <f t="shared" si="20"/>
+        <v>0.42740700000000031</v>
+      </c>
+      <c r="X117" s="47">
+        <f t="array" ref="X117">IF(O117&lt;&gt;"",AVERAGE(ABS(O117:R117)),"")</f>
+        <v>5.465475000000003E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" ht="20">
+      <c r="A118">
+        <v>133</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="25">
+        <v>120</v>
+      </c>
+      <c r="D118" s="29">
+        <v>40</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>114</v>
+      </c>
+      <c r="G118" s="23"/>
+      <c r="J118" s="4">
+        <v>1.2697000000000001</v>
+      </c>
+      <c r="K118" s="4">
+        <v>1.7362500000000001</v>
+      </c>
+      <c r="L118" s="4">
+        <v>0.177869</v>
+      </c>
+      <c r="M118" s="4">
+        <v>0.27340199999999998</v>
+      </c>
+      <c r="N118" s="26">
+        <v>4</v>
+      </c>
+      <c r="O118" s="4">
+        <f t="shared" si="16"/>
+        <v>6.9700000000000095E-2</v>
+      </c>
+      <c r="P118" s="4">
+        <f t="shared" si="17"/>
+        <v>-5.8749999999999858E-2</v>
+      </c>
+      <c r="Q118" s="4">
+        <f t="shared" si="18"/>
+        <v>3.8690000000000113E-3</v>
+      </c>
+      <c r="R118" s="9">
+        <f t="shared" si="19"/>
+        <v>-2.5298000000000043E-2</v>
+      </c>
+      <c r="S118" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W118" s="46">
+        <f t="shared" si="20"/>
+        <v>0.28565100000000021</v>
+      </c>
+      <c r="X118" s="47">
+        <f t="array" ref="X118">IF(O118&lt;&gt;"",AVERAGE(ABS(O118:R118)),"")</f>
+        <v>3.9404250000000002E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" ht="20">
+      <c r="A119">
+        <v>134</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="25">
+        <v>120</v>
+      </c>
+      <c r="D119" s="29">
+        <v>40</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>114</v>
+      </c>
+      <c r="G119" s="23"/>
+      <c r="J119" s="4">
+        <v>1.2961</v>
+      </c>
+      <c r="K119" s="4">
+        <v>1.7159899999999999</v>
+      </c>
+      <c r="L119" s="4">
+        <v>0.177562</v>
+      </c>
+      <c r="M119" s="4">
+        <v>0.27369100000000002</v>
+      </c>
+      <c r="N119" s="26">
+        <v>4</v>
+      </c>
+      <c r="O119" s="4">
+        <f t="shared" si="16"/>
+        <v>9.6100000000000074E-2</v>
+      </c>
+      <c r="P119" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.9010000000000025E-2</v>
+      </c>
+      <c r="Q119" s="4">
+        <f t="shared" si="18"/>
+        <v>3.5620000000000096E-3</v>
+      </c>
+      <c r="R119" s="9">
+        <f t="shared" si="19"/>
+        <v>-2.5009000000000003E-2</v>
+      </c>
+      <c r="S119" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W119" s="46">
+        <f t="shared" si="20"/>
+        <v>0.35692300000000021</v>
+      </c>
+      <c r="X119" s="47">
+        <f t="array" ref="X119">IF(O119&lt;&gt;"",AVERAGE(ABS(O119:R119)),"")</f>
+        <v>5.0920250000000028E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" ht="20">
+      <c r="A120">
+        <v>135</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="25">
+        <v>120</v>
+      </c>
+      <c r="D120" s="29">
+        <v>40</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>114</v>
+      </c>
+      <c r="G120" s="23"/>
+      <c r="J120" s="4">
+        <v>1.2771399999999999</v>
+      </c>
+      <c r="K120" s="4">
+        <v>1.75166</v>
+      </c>
+      <c r="L120" s="4">
+        <v>0.167074</v>
+      </c>
+      <c r="M120" s="4">
+        <v>0.28691299999999997</v>
+      </c>
+      <c r="N120" s="26">
+        <v>4</v>
+      </c>
+      <c r="O120" s="4">
+        <f t="shared" si="16"/>
+        <v>7.7139999999999986E-2</v>
+      </c>
+      <c r="P120" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.3339999999999934E-2</v>
+      </c>
+      <c r="Q120" s="4">
+        <f t="shared" si="18"/>
+        <v>-6.9259999999999877E-3</v>
+      </c>
+      <c r="R120" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.1787000000000047E-2</v>
+      </c>
+      <c r="S120" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W120" s="46">
+        <f t="shared" si="20"/>
+        <v>0.25375900000000001</v>
+      </c>
+      <c r="X120" s="47">
+        <f t="array" ref="X120">IF(O120&lt;&gt;"",AVERAGE(ABS(O120:R120)),"")</f>
+        <v>3.4798249999999989E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" ht="20">
+      <c r="A121">
+        <v>136</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" s="25">
+        <v>120</v>
+      </c>
+      <c r="D121" s="29">
+        <v>40</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>114</v>
+      </c>
+      <c r="G121" s="23"/>
+      <c r="J121" s="4">
+        <v>1.2959000000000001</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1.7451399999999999</v>
+      </c>
+      <c r="L121" s="4">
+        <v>0.168514</v>
+      </c>
+      <c r="M121" s="4">
+        <v>0.283611</v>
+      </c>
+      <c r="N121" s="26">
+        <v>4</v>
+      </c>
+      <c r="O121" s="4">
+        <f t="shared" si="16"/>
+        <v>9.5900000000000096E-2</v>
+      </c>
+      <c r="P121" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.9860000000000015E-2</v>
+      </c>
+      <c r="Q121" s="4">
+        <f t="shared" si="18"/>
+        <v>-5.4859999999999909E-3</v>
+      </c>
+      <c r="R121" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.5089000000000019E-2</v>
+      </c>
+      <c r="S121" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W121" s="46">
+        <f t="shared" si="20"/>
+        <v>0.30338500000000024</v>
+      </c>
+      <c r="X121" s="47">
+        <f t="array" ref="X121">IF(O121&lt;&gt;"",AVERAGE(ABS(O121:R121)),"")</f>
+        <v>4.158375000000003E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" ht="20">
+      <c r="A122">
+        <v>137</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="25">
+        <v>120</v>
+      </c>
+      <c r="D122" s="29">
+        <v>40</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>114</v>
+      </c>
+      <c r="G122" s="23"/>
+      <c r="J122" s="48">
+        <v>1.3472900000000001</v>
+      </c>
+      <c r="K122" s="49">
+        <v>0.92560500000000001</v>
+      </c>
+      <c r="L122" s="4">
+        <v>0.165713</v>
+      </c>
+      <c r="M122" s="4">
+        <v>0.28729900000000003</v>
+      </c>
+      <c r="N122" s="26">
+        <v>3</v>
+      </c>
+      <c r="O122" s="4">
+        <f t="shared" si="16"/>
+        <v>0.14729000000000014</v>
+      </c>
+      <c r="P122" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.86939499999999992</v>
+      </c>
+      <c r="Q122" s="4">
+        <f t="shared" si="18"/>
+        <v>-8.2869999999999888E-3</v>
+      </c>
+      <c r="R122" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.1400999999999994E-2</v>
+      </c>
+      <c r="S122" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W122" s="46"/>
+      <c r="X122" s="47"/>
+    </row>
+    <row r="123" spans="1:27" ht="20">
+      <c r="A123">
+        <v>138</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="25">
+        <v>120</v>
+      </c>
+      <c r="D123" s="29">
+        <v>40</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>114</v>
+      </c>
+      <c r="G123" s="23"/>
+      <c r="J123" s="4">
+        <v>1.2881400000000001</v>
+      </c>
+      <c r="K123" s="4">
+        <v>1.7537199999999999</v>
+      </c>
+      <c r="L123" s="4">
+        <v>0.176118</v>
+      </c>
+      <c r="M123" s="4">
+        <v>0.28093099999999999</v>
+      </c>
+      <c r="N123" s="26">
+        <v>4</v>
+      </c>
+      <c r="O123" s="4">
+        <f t="shared" si="16"/>
+        <v>8.8140000000000107E-2</v>
+      </c>
+      <c r="P123" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.1279999999999983E-2</v>
+      </c>
+      <c r="Q123" s="4">
+        <f t="shared" si="18"/>
+        <v>2.1180000000000088E-3</v>
+      </c>
+      <c r="R123" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.7769000000000035E-2</v>
+      </c>
+      <c r="S123" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W123" s="46">
+        <f t="shared" ref="W122:W123" si="21">IF(O123&lt;&gt;"", ABS(O123)*2 + ABS(P123)*1 + ABS(Q123)*3 + ABS(R123)*3, "")</f>
+        <v>0.27722100000000033</v>
+      </c>
+      <c r="X123" s="47">
+        <f t="array" ref="X123">IF(O123&lt;&gt;"",AVERAGE(ABS(O123:R123)),"")</f>
+        <v>3.7326750000000034E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" ht="20">
+      <c r="A124">
+        <v>139</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="25">
+        <v>120</v>
+      </c>
+      <c r="D124" s="29">
+        <v>40</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>114</v>
+      </c>
+      <c r="G124" s="23"/>
+      <c r="J124" s="4">
+        <v>1.2934000000000001</v>
+      </c>
+      <c r="K124" s="4">
+        <v>1.7207399999999999</v>
+      </c>
+      <c r="L124" s="4">
+        <v>0.17499500000000001</v>
+      </c>
+      <c r="M124" s="4">
+        <v>0.28099600000000002</v>
+      </c>
+      <c r="N124" s="26">
+        <v>4</v>
+      </c>
+      <c r="O124" s="4">
+        <f t="shared" si="16"/>
+        <v>9.340000000000015E-2</v>
+      </c>
+      <c r="P124" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.4259999999999993E-2</v>
+      </c>
+      <c r="Q124" s="4">
+        <f t="shared" si="18"/>
+        <v>9.9500000000002364E-4</v>
+      </c>
+      <c r="R124" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.7703999999999998E-2</v>
+      </c>
+      <c r="S124" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W124" s="46">
+        <f t="shared" si="20"/>
+        <v>0.31715700000000036</v>
+      </c>
+      <c r="X124" s="47">
+        <f t="array" ref="X124">IF(O124&lt;&gt;"",AVERAGE(ABS(O124:R124)),"")</f>
+        <v>4.6589750000000041E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" ht="20">
+      <c r="A125">
+        <v>140</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="25">
+        <v>120</v>
+      </c>
+      <c r="D125" s="29">
+        <v>40</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>114</v>
+      </c>
+      <c r="G125" s="23"/>
+      <c r="J125" s="4">
+        <v>1.2923</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1.7837700000000001</v>
+      </c>
+      <c r="L125" s="4">
+        <v>0.16130800000000001</v>
+      </c>
+      <c r="M125" s="4">
+        <v>0.28639900000000001</v>
+      </c>
+      <c r="N125" s="26">
+        <v>4</v>
+      </c>
+      <c r="O125" s="4">
+        <f t="shared" si="16"/>
+        <v>9.2300000000000049E-2</v>
+      </c>
+      <c r="P125" s="4">
+        <f t="shared" si="17"/>
+        <v>-1.1229999999999851E-2</v>
+      </c>
+      <c r="Q125" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.2691999999999981E-2</v>
+      </c>
+      <c r="R125" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.2301000000000006E-2</v>
+      </c>
+      <c r="S125" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W125" s="46">
+        <f t="shared" si="20"/>
+        <v>0.27080899999999991</v>
+      </c>
+      <c r="X125" s="47">
+        <f t="array" ref="X125">IF(O125&lt;&gt;"",AVERAGE(ABS(O125:R125)),"")</f>
+        <v>3.2130749999999972E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" ht="20">
+      <c r="A126">
+        <v>141</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="25">
+        <v>120</v>
+      </c>
+      <c r="D126" s="29">
+        <v>40</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>114</v>
+      </c>
+      <c r="G126" s="23"/>
+      <c r="J126" s="4">
+        <v>1.29809</v>
+      </c>
+      <c r="K126" s="4">
+        <v>1.7996000000000001</v>
+      </c>
+      <c r="L126" s="4">
+        <v>0.177783</v>
+      </c>
+      <c r="M126" s="4">
+        <v>0.26890999999999998</v>
+      </c>
+      <c r="N126" s="26">
+        <v>4</v>
+      </c>
+      <c r="O126" s="4">
+        <f t="shared" si="16"/>
+        <v>9.8090000000000011E-2</v>
+      </c>
+      <c r="P126" s="4">
+        <f t="shared" si="17"/>
+        <v>4.6000000000001595E-3</v>
+      </c>
+      <c r="Q126" s="4">
+        <f t="shared" si="18"/>
+        <v>3.7830000000000086E-3</v>
+      </c>
+      <c r="R126" s="9">
+        <f t="shared" si="19"/>
+        <v>-2.9790000000000039E-2</v>
+      </c>
+      <c r="S126" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W126" s="46">
+        <f t="shared" si="20"/>
+        <v>0.30149900000000029</v>
+      </c>
+      <c r="X126" s="47">
+        <f t="array" ref="X126">IF(O126&lt;&gt;"",AVERAGE(ABS(O126:R126)),"")</f>
+        <v>3.4065750000000054E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" ht="20">
+      <c r="A127">
+        <v>142</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="25">
+        <v>120</v>
+      </c>
+      <c r="D127" s="29">
+        <v>40</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>114</v>
+      </c>
+      <c r="G127" s="23"/>
+      <c r="J127" s="4">
+        <v>1.2877099999999999</v>
+      </c>
+      <c r="K127" s="4">
+        <v>1.71827</v>
+      </c>
+      <c r="L127" s="4">
+        <v>0.16939899999999999</v>
+      </c>
+      <c r="M127" s="4">
+        <v>0.28840500000000002</v>
+      </c>
+      <c r="N127" s="26">
+        <v>4</v>
+      </c>
+      <c r="O127" s="4">
+        <f t="shared" si="16"/>
+        <v>8.7709999999999955E-2</v>
+      </c>
+      <c r="P127" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.6729999999999965E-2</v>
+      </c>
+      <c r="Q127" s="4">
+        <f t="shared" si="18"/>
+        <v>-4.600999999999994E-3</v>
+      </c>
+      <c r="R127" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.0294999999999999E-2</v>
+      </c>
+      <c r="S127" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W127" s="46">
+        <f t="shared" si="20"/>
+        <v>0.29683799999999988</v>
+      </c>
+      <c r="X127" s="47">
+        <f t="array" ref="X127">IF(O127&lt;&gt;"",AVERAGE(ABS(O127:R127)),"")</f>
+        <v>4.4833999999999978E-2</v>
+      </c>
+      <c r="Y127" s="37">
+        <f>AVERAGE(W115:W127)</f>
+        <v>0.31078275000000016</v>
+      </c>
+      <c r="Z127" s="37">
+        <f>AVERAGE(X115:X127)</f>
+        <v>4.2160229166666681E-2</v>
+      </c>
+      <c r="AA127">
+        <f>_xlfn.STDEV.P(X115:X127)</f>
+        <v>6.8176510529488355E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" ht="20">
+      <c r="A128">
+        <v>145</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="25">
+        <v>120</v>
+      </c>
+      <c r="D128" s="29">
+        <v>40</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>108</v>
+      </c>
+      <c r="G128" s="23"/>
+      <c r="J128" s="4">
+        <v>1.29897</v>
+      </c>
+      <c r="K128" s="4">
+        <v>1.73072</v>
+      </c>
+      <c r="L128" s="4">
+        <v>0.17222399999999999</v>
+      </c>
+      <c r="M128" s="4">
+        <v>0.28410400000000002</v>
+      </c>
+      <c r="N128" s="26">
+        <v>4</v>
+      </c>
+      <c r="O128" s="4">
+        <f t="shared" si="16"/>
+        <v>9.8970000000000002E-2</v>
+      </c>
+      <c r="P128" s="4">
+        <f t="shared" si="17"/>
+        <v>-6.4279999999999893E-2</v>
+      </c>
+      <c r="Q128" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.7759999999999998E-3</v>
+      </c>
+      <c r="R128" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.4595999999999998E-2</v>
+      </c>
+      <c r="S128" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W128" s="46">
+        <f t="shared" si="20"/>
+        <v>0.31133599999999989</v>
+      </c>
+      <c r="X128" s="47">
+        <f t="array" ref="X128">IF(O128&lt;&gt;"",AVERAGE(ABS(O128:R128)),"")</f>
+        <v>4.4905499999999973E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" ht="20">
+      <c r="A129">
+        <v>146</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="25">
+        <v>120</v>
+      </c>
+      <c r="D129" s="29">
+        <v>40</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>108</v>
+      </c>
+      <c r="G129" s="23"/>
+      <c r="J129" s="4">
+        <v>1.2980700000000001</v>
+      </c>
+      <c r="K129" s="4">
+        <v>1.7577100000000001</v>
+      </c>
+      <c r="L129" s="4">
+        <v>0.16653299999999999</v>
+      </c>
+      <c r="M129" s="4">
+        <v>0.27785500000000002</v>
+      </c>
+      <c r="N129" s="26">
+        <v>4</v>
+      </c>
+      <c r="O129" s="4">
+        <f t="shared" si="16"/>
+        <v>9.8070000000000102E-2</v>
+      </c>
+      <c r="P129" s="4">
+        <f t="shared" si="17"/>
+        <v>-3.7289999999999823E-2</v>
+      </c>
+      <c r="Q129" s="4">
+        <f t="shared" si="18"/>
+        <v>-7.4670000000000014E-3</v>
+      </c>
+      <c r="R129" s="9">
+        <f t="shared" si="19"/>
+        <v>-2.0845000000000002E-2</v>
+      </c>
+      <c r="S129" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W129" s="46">
+        <f t="shared" si="20"/>
+        <v>0.31836600000000004</v>
+      </c>
+      <c r="X129" s="47">
+        <f t="array" ref="X129">IF(O129&lt;&gt;"",AVERAGE(ABS(O129:R129)),"")</f>
+        <v>4.0917999999999982E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" ht="20">
+      <c r="A130">
+        <v>147</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="25">
+        <v>120</v>
+      </c>
+      <c r="D130" s="29">
+        <v>40</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>108</v>
+      </c>
+      <c r="G130" s="23"/>
+      <c r="J130" s="4">
+        <v>1.29373</v>
+      </c>
+      <c r="K130" s="4">
+        <v>1.7577</v>
+      </c>
+      <c r="L130" s="4">
+        <v>0.170735</v>
+      </c>
+      <c r="M130" s="4">
+        <v>0.28618199999999999</v>
+      </c>
+      <c r="N130" s="26">
+        <v>4</v>
+      </c>
+      <c r="O130" s="4">
+        <f t="shared" si="16"/>
+        <v>9.3730000000000091E-2</v>
+      </c>
+      <c r="P130" s="4">
+        <f t="shared" si="17"/>
+        <v>-3.7299999999999889E-2</v>
+      </c>
+      <c r="Q130" s="4">
+        <f t="shared" si="18"/>
+        <v>-3.2649999999999901E-3</v>
+      </c>
+      <c r="R130" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.2518000000000029E-2</v>
+      </c>
+      <c r="S130" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W130" s="46">
+        <f t="shared" si="20"/>
+        <v>0.27210900000000016</v>
+      </c>
+      <c r="X130" s="47">
+        <f t="array" ref="X130">IF(O130&lt;&gt;"",AVERAGE(ABS(O130:R130)),"")</f>
+        <v>3.670325E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" ht="20">
+      <c r="A131">
+        <v>148</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="25">
+        <v>120</v>
+      </c>
+      <c r="D131" s="29">
+        <v>40</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>108</v>
+      </c>
+      <c r="G131" s="23"/>
+      <c r="J131" s="4">
+        <v>1.2927999999999999</v>
+      </c>
+      <c r="K131" s="4">
+        <v>1.7218</v>
+      </c>
+      <c r="L131" s="4">
+        <v>0.166517</v>
+      </c>
+      <c r="M131" s="4">
+        <v>0.28842400000000001</v>
+      </c>
+      <c r="N131" s="26">
+        <v>4</v>
+      </c>
+      <c r="O131" s="4">
+        <f t="shared" si="16"/>
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="P131" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.3199999999999932E-2</v>
+      </c>
+      <c r="Q131" s="4">
+        <f t="shared" si="18"/>
+        <v>-7.4829999999999897E-3</v>
+      </c>
+      <c r="R131" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.0276000000000007E-2</v>
+      </c>
+      <c r="S131" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W131" s="46">
+        <f t="shared" si="20"/>
+        <v>0.31207699999999988</v>
+      </c>
+      <c r="X131" s="47">
+        <f t="array" ref="X131">IF(O131&lt;&gt;"",AVERAGE(ABS(O131:R131)),"")</f>
+        <v>4.5939749999999981E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" ht="20">
+      <c r="A132">
+        <v>149</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="25">
+        <v>120</v>
+      </c>
+      <c r="D132" s="29">
+        <v>40</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>108</v>
+      </c>
+      <c r="G132" s="23"/>
+      <c r="J132" s="4">
+        <v>1.3005800000000001</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1.74196</v>
+      </c>
+      <c r="L132" s="4">
+        <v>0.15684300000000001</v>
+      </c>
+      <c r="M132" s="4">
+        <v>0.28803400000000001</v>
+      </c>
+      <c r="N132" s="26">
+        <v>4</v>
+      </c>
+      <c r="O132" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10058000000000011</v>
+      </c>
+      <c r="P132" s="4">
+        <f t="shared" si="17"/>
+        <v>-5.3039999999999976E-2</v>
+      </c>
+      <c r="Q132" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.7156999999999978E-2</v>
+      </c>
+      <c r="R132" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.0666000000000009E-2</v>
+      </c>
+      <c r="S132" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W132" s="46">
+        <f t="shared" si="20"/>
+        <v>0.33766900000000016</v>
+      </c>
+      <c r="X132" s="47">
+        <f t="array" ref="X132">IF(O132&lt;&gt;"",AVERAGE(ABS(O132:R132)),"")</f>
+        <v>4.5360750000000019E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" ht="20">
+      <c r="A133">
+        <v>150</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="25">
+        <v>120</v>
+      </c>
+      <c r="D133" s="29">
+        <v>40</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>108</v>
+      </c>
+      <c r="G133" s="23"/>
+      <c r="J133" s="4">
+        <v>1.2934600000000001</v>
+      </c>
+      <c r="K133" s="4">
+        <v>1.71374</v>
+      </c>
+      <c r="L133" s="4">
+        <v>0.176535</v>
+      </c>
+      <c r="M133" s="4">
+        <v>0.28089769999999997</v>
+      </c>
+      <c r="N133" s="26">
+        <v>4</v>
+      </c>
+      <c r="O133" s="4">
+        <f t="shared" si="16"/>
+        <v>9.3460000000000099E-2</v>
+      </c>
+      <c r="P133" s="4">
+        <f t="shared" si="17"/>
+        <v>-8.1259999999999888E-2</v>
+      </c>
+      <c r="Q133" s="4">
+        <f t="shared" si="18"/>
+        <v>2.5350000000000095E-3</v>
+      </c>
+      <c r="R133" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.7802300000000049E-2</v>
+      </c>
+      <c r="S133" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W133" s="46">
+        <f t="shared" si="20"/>
+        <v>0.32919190000000026</v>
+      </c>
+      <c r="X133" s="47">
+        <f t="array" ref="X133">IF(O133&lt;&gt;"",AVERAGE(ABS(O133:R133)),"")</f>
+        <v>4.8764325000000011E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" ht="20">
+      <c r="A134">
+        <v>151</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="25">
+        <v>120</v>
+      </c>
+      <c r="D134" s="29">
+        <v>40</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>108</v>
+      </c>
+      <c r="G134" s="23"/>
+      <c r="J134" s="4">
+        <v>1.29555</v>
+      </c>
+      <c r="K134" s="4">
+        <v>1.72458</v>
+      </c>
+      <c r="L134" s="4">
+        <v>0.15706800000000001</v>
+      </c>
+      <c r="M134" s="4">
+        <v>0.29455500000000001</v>
+      </c>
+      <c r="N134" s="26">
+        <v>4</v>
+      </c>
+      <c r="O134" s="4">
+        <f t="shared" si="16"/>
+        <v>9.5550000000000024E-2</v>
+      </c>
+      <c r="P134" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.0419999999999927E-2</v>
+      </c>
+      <c r="Q134" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.6931999999999975E-2</v>
+      </c>
+      <c r="R134" s="9">
+        <f t="shared" si="19"/>
+        <v>-4.1450000000000098E-3</v>
+      </c>
+      <c r="S134" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W134" s="46">
+        <f t="shared" si="20"/>
+        <v>0.32475099999999996</v>
+      </c>
+      <c r="X134" s="47">
+        <f t="array" ref="X134">IF(O134&lt;&gt;"",AVERAGE(ABS(O134:R134)),"")</f>
+        <v>4.6761749999999984E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" ht="20">
+      <c r="A135">
+        <v>152</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="25">
+        <v>120</v>
+      </c>
+      <c r="D135" s="29">
+        <v>40</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>108</v>
+      </c>
+      <c r="G135" s="23"/>
+      <c r="J135" s="4">
+        <v>1.3027299999999999</v>
+      </c>
+      <c r="K135" s="4">
+        <v>1.75349</v>
+      </c>
+      <c r="L135" s="4">
+        <v>0.154141</v>
+      </c>
+      <c r="M135" s="4">
+        <v>0.292991</v>
+      </c>
+      <c r="N135" s="26">
+        <v>4</v>
+      </c>
+      <c r="O135" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10272999999999999</v>
+      </c>
+      <c r="P135" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.1509999999999936E-2</v>
+      </c>
+      <c r="Q135" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.9858999999999988E-2</v>
+      </c>
+      <c r="R135" s="9">
+        <f t="shared" si="19"/>
+        <v>-5.7090000000000196E-3</v>
+      </c>
+      <c r="S135" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W135" s="46">
+        <f t="shared" si="20"/>
+        <v>0.32367399999999996</v>
+      </c>
+      <c r="X135" s="47">
+        <f t="array" ref="X135">IF(O135&lt;&gt;"",AVERAGE(ABS(O135:R135)),"")</f>
+        <v>4.2451999999999983E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" ht="20">
+      <c r="A136">
+        <v>153</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="25">
+        <v>120</v>
+      </c>
+      <c r="D136" s="29">
+        <v>40</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>108</v>
+      </c>
+      <c r="G136" s="23"/>
+      <c r="J136" s="4">
+        <v>1.2945599999999999</v>
+      </c>
+      <c r="K136" s="4">
+        <v>1.7671600000000001</v>
+      </c>
+      <c r="L136" s="4">
+        <v>0.17782999999999999</v>
+      </c>
+      <c r="M136" s="4">
+        <v>0.28037099999999998</v>
+      </c>
+      <c r="N136" s="26">
+        <v>4</v>
+      </c>
+      <c r="O136" s="4">
+        <f t="shared" si="16"/>
+        <v>9.4559999999999977E-2</v>
+      </c>
+      <c r="P136" s="4">
+        <f t="shared" si="17"/>
+        <v>-2.7839999999999865E-2</v>
+      </c>
+      <c r="Q136" s="4">
+        <f t="shared" si="18"/>
+        <v>3.8300000000000001E-3</v>
+      </c>
+      <c r="R136" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.832900000000004E-2</v>
+      </c>
+      <c r="S136" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W136" s="46">
+        <f t="shared" si="20"/>
+        <v>0.28343699999999994</v>
+      </c>
+      <c r="X136" s="47">
+        <f t="array" ref="X136">IF(O136&lt;&gt;"",AVERAGE(ABS(O136:R136)),"")</f>
+        <v>3.6139749999999971E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" ht="20">
+      <c r="A137">
+        <v>154</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="25">
+        <v>120</v>
+      </c>
+      <c r="D137" s="29">
+        <v>40</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>108</v>
+      </c>
+      <c r="G137" s="23"/>
+      <c r="J137" s="4">
+        <v>1.2891300000000001</v>
+      </c>
+      <c r="K137" s="4">
+        <v>1.74726</v>
+      </c>
+      <c r="L137" s="4">
+        <v>0.17238000000000001</v>
+      </c>
+      <c r="M137" s="4">
+        <v>0.28716700000000001</v>
+      </c>
+      <c r="N137" s="26">
+        <v>4</v>
+      </c>
+      <c r="O137" s="4">
+        <f t="shared" si="16"/>
+        <v>8.9130000000000154E-2</v>
+      </c>
+      <c r="P137" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.7739999999999894E-2</v>
+      </c>
+      <c r="Q137" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.6199999999999826E-3</v>
+      </c>
+      <c r="R137" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.1533000000000015E-2</v>
+      </c>
+      <c r="S137" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W137" s="46">
+        <f t="shared" si="20"/>
+        <v>0.26545900000000022</v>
+      </c>
+      <c r="X137" s="47">
+        <f t="array" ref="X137">IF(O137&lt;&gt;"",AVERAGE(ABS(O137:R137)),"")</f>
+        <v>3.7505750000000011E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" ht="20">
+      <c r="A138">
+        <v>155</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="25">
+        <v>120</v>
+      </c>
+      <c r="D138" s="29">
+        <v>40</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>108</v>
+      </c>
+      <c r="G138" s="23"/>
+      <c r="J138" s="4">
+        <v>1.2974699999999999</v>
+      </c>
+      <c r="K138" s="4">
+        <v>1.728</v>
+      </c>
+      <c r="L138" s="4">
+        <v>0.17744799999999999</v>
+      </c>
+      <c r="M138" s="4">
+        <v>0.28133999999999998</v>
+      </c>
+      <c r="N138" s="26">
+        <v>4</v>
+      </c>
+      <c r="O138" s="4">
+        <f t="shared" si="16"/>
+        <v>9.7469999999999946E-2</v>
+      </c>
+      <c r="P138" s="4">
+        <f t="shared" si="17"/>
+        <v>-6.6999999999999948E-2</v>
+      </c>
+      <c r="Q138" s="4">
+        <f t="shared" si="18"/>
+        <v>3.4480000000000066E-3</v>
+      </c>
+      <c r="R138" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.7360000000000042E-2</v>
+      </c>
+      <c r="S138" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W138" s="46">
+        <f t="shared" si="20"/>
+        <v>0.32436399999999999</v>
+      </c>
+      <c r="X138" s="47">
+        <f t="array" ref="X138">IF(O138&lt;&gt;"",AVERAGE(ABS(O138:R138)),"")</f>
+        <v>4.6319499999999986E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" ht="20">
+      <c r="A139">
+        <v>156</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="25">
+        <v>120</v>
+      </c>
+      <c r="D139" s="29">
+        <v>40</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>108</v>
+      </c>
+      <c r="G139" s="23"/>
+      <c r="J139" s="4">
+        <v>1.2910200000000001</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1.7459</v>
+      </c>
+      <c r="L139" s="4">
+        <v>0.177314</v>
+      </c>
+      <c r="M139" s="4">
+        <v>0.28173199999999998</v>
+      </c>
+      <c r="N139" s="26">
+        <v>4</v>
+      </c>
+      <c r="O139" s="4">
+        <f t="shared" si="16"/>
+        <v>9.1020000000000101E-2</v>
+      </c>
+      <c r="P139" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.9099999999999921E-2</v>
+      </c>
+      <c r="Q139" s="4">
+        <f t="shared" si="18"/>
+        <v>3.3140000000000114E-3</v>
+      </c>
+      <c r="R139" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.6968000000000039E-2</v>
+      </c>
+      <c r="S139" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W139" s="46">
+        <f t="shared" si="20"/>
+        <v>0.2919860000000003</v>
+      </c>
+      <c r="X139" s="47">
+        <f t="array" ref="X139">IF(O139&lt;&gt;"",AVERAGE(ABS(O139:R139)),"")</f>
+        <v>4.0100500000000018E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" ht="20">
+      <c r="A140">
+        <v>157</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="25">
+        <v>120</v>
+      </c>
+      <c r="D140" s="29">
+        <v>40</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>108</v>
+      </c>
+      <c r="G140" s="23"/>
+      <c r="J140" s="4">
+        <v>1.2952399999999999</v>
+      </c>
+      <c r="K140" s="4">
+        <v>1.7428399999999999</v>
+      </c>
+      <c r="L140" s="4">
+        <v>0.175429</v>
+      </c>
+      <c r="M140" s="4">
+        <v>0.28009299999999998</v>
+      </c>
+      <c r="N140" s="26">
+        <v>4</v>
+      </c>
+      <c r="O140" s="4">
+        <f t="shared" si="16"/>
+        <v>9.5239999999999991E-2</v>
+      </c>
+      <c r="P140" s="4">
+        <f t="shared" si="17"/>
+        <v>-5.2159999999999984E-2</v>
+      </c>
+      <c r="Q140" s="4">
+        <f t="shared" si="18"/>
+        <v>1.4290000000000136E-3</v>
+      </c>
+      <c r="R140" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.860700000000004E-2</v>
+      </c>
+      <c r="S140" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W140" s="46">
+        <f t="shared" si="20"/>
+        <v>0.30274800000000013</v>
+      </c>
+      <c r="X140" s="47">
+        <f t="array" ref="X140">IF(O140&lt;&gt;"",AVERAGE(ABS(O140:R140)),"")</f>
+        <v>4.1859000000000007E-2</v>
+      </c>
+      <c r="Y140" s="37">
+        <f>AVERAGE(W128:W140)</f>
+        <v>0.30747445384615391</v>
+      </c>
+      <c r="Z140" s="37">
+        <f>AVERAGE(X128:X140)</f>
+        <v>4.2594601923076916E-2</v>
+      </c>
+      <c r="AA140">
+        <f>_xlfn.STDEV.P(X128:X140)</f>
+        <v>3.9744361092107425E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" ht="20">
+      <c r="A141">
+        <v>160</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="25">
+        <v>120</v>
+      </c>
+      <c r="D141" s="29">
+        <v>40</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>109</v>
+      </c>
+      <c r="G141" s="23"/>
+      <c r="J141" s="4">
+        <v>1.3071900000000001</v>
+      </c>
+      <c r="K141" s="4">
+        <v>1.6899500000000001</v>
+      </c>
+      <c r="L141" s="4">
+        <v>0.16003200000000001</v>
+      </c>
+      <c r="M141" s="4">
+        <v>0.28877700000000001</v>
+      </c>
+      <c r="N141" s="26">
+        <v>4</v>
+      </c>
+      <c r="O141" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10719000000000012</v>
+      </c>
+      <c r="P141" s="4">
+        <f t="shared" si="17"/>
+        <v>-0.10504999999999987</v>
+      </c>
+      <c r="Q141" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.396799999999998E-2</v>
+      </c>
+      <c r="R141" s="9">
+        <f t="shared" si="19"/>
+        <v>-9.9230000000000151E-3</v>
+      </c>
+      <c r="S141" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W141" s="46">
+        <f t="shared" si="20"/>
+        <v>0.39110300000000009</v>
+      </c>
+      <c r="X141" s="47">
+        <f t="array" ref="X141">IF(O141&lt;&gt;"",AVERAGE(ABS(O141:R141)),"")</f>
+        <v>5.9032749999999995E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" ht="20">
+      <c r="A142">
+        <v>161</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="25">
+        <v>120</v>
+      </c>
+      <c r="D142" s="29">
+        <v>40</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>109</v>
+      </c>
+      <c r="G142" s="23"/>
+      <c r="J142" s="4">
+        <v>1.2949299999999999</v>
+      </c>
+      <c r="K142" s="4">
+        <v>1.7477</v>
+      </c>
+      <c r="L142" s="4">
+        <v>0.178596</v>
+      </c>
+      <c r="M142" s="4">
+        <v>0.28043400000000002</v>
+      </c>
+      <c r="N142" s="26">
+        <v>4</v>
+      </c>
+      <c r="O142" s="4">
+        <f t="shared" si="16"/>
+        <v>9.4929999999999959E-2</v>
+      </c>
+      <c r="P142" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.7299999999999898E-2</v>
+      </c>
+      <c r="Q142" s="4">
+        <f t="shared" si="18"/>
+        <v>4.5960000000000167E-3</v>
+      </c>
+      <c r="R142" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.8266000000000004E-2</v>
+      </c>
+      <c r="S142" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W142" s="46">
+        <f t="shared" si="20"/>
+        <v>0.30574599999999985</v>
+      </c>
+      <c r="X142" s="47">
+        <f t="array" ref="X142">IF(O142&lt;&gt;"",AVERAGE(ABS(O142:R142)),"")</f>
+        <v>4.1272999999999969E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" ht="20">
+      <c r="A143">
+        <v>162</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="25">
+        <v>120</v>
+      </c>
+      <c r="D143" s="29">
+        <v>40</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>109</v>
+      </c>
+      <c r="G143" s="23"/>
+      <c r="J143" s="4">
+        <v>1.3065899999999999</v>
+      </c>
+      <c r="K143" s="4">
+        <v>1.7246300000000001</v>
+      </c>
+      <c r="L143" s="4">
+        <v>0.161694</v>
+      </c>
+      <c r="M143" s="4">
+        <v>0.28385199999999999</v>
+      </c>
+      <c r="N143" s="26">
+        <v>4</v>
+      </c>
+      <c r="O143" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10658999999999996</v>
+      </c>
+      <c r="P143" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.0369999999999822E-2</v>
+      </c>
+      <c r="Q143" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.2305999999999984E-2</v>
+      </c>
+      <c r="R143" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.4848000000000028E-2</v>
+      </c>
+      <c r="S143" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W143" s="46">
+        <f t="shared" si="20"/>
+        <v>0.36501199999999978</v>
+      </c>
+      <c r="X143" s="47">
+        <f t="array" ref="X143">IF(O143&lt;&gt;"",AVERAGE(ABS(O143:R143)),"")</f>
+        <v>5.1028499999999949E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" ht="20">
+      <c r="A144">
+        <v>163</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="25">
+        <v>120</v>
+      </c>
+      <c r="D144" s="29">
+        <v>40</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>109</v>
+      </c>
+      <c r="G144" s="23"/>
+      <c r="J144" s="4">
+        <v>1.2944100000000001</v>
+      </c>
+      <c r="K144" s="4">
+        <v>1.7460500000000001</v>
+      </c>
+      <c r="L144" s="4">
+        <v>0.170685</v>
+      </c>
+      <c r="M144" s="4">
+        <v>0.280163</v>
+      </c>
+      <c r="N144" s="26">
+        <v>4</v>
+      </c>
+      <c r="O144" s="4">
+        <f t="shared" si="16"/>
+        <v>9.4410000000000105E-2</v>
+      </c>
+      <c r="P144" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.8949999999999827E-2</v>
+      </c>
+      <c r="Q144" s="4">
+        <f t="shared" si="18"/>
+        <v>-3.3149999999999846E-3</v>
+      </c>
+      <c r="R144" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.8537000000000026E-2</v>
+      </c>
+      <c r="S144" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W144" s="46">
+        <f t="shared" si="20"/>
+        <v>0.3033260000000001</v>
+      </c>
+      <c r="X144" s="47">
+        <f t="array" ref="X144">IF(O144&lt;&gt;"",AVERAGE(ABS(O144:R144)),"")</f>
+        <v>4.1302999999999986E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" ht="20">
+      <c r="A145">
+        <v>164</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="25">
+        <v>120</v>
+      </c>
+      <c r="D145" s="29">
+        <v>40</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>109</v>
+      </c>
+      <c r="G145" s="23"/>
+      <c r="J145" s="4">
+        <v>1.7511399999999999</v>
+      </c>
+      <c r="K145" s="4">
+        <v>1.7511399999999999</v>
+      </c>
+      <c r="L145" s="4">
+        <v>0.161715</v>
+      </c>
+      <c r="M145" s="4">
+        <v>0.29009299999999999</v>
+      </c>
+      <c r="N145" s="26">
+        <v>4</v>
+      </c>
+      <c r="O145" s="4">
+        <f t="shared" si="16"/>
+        <v>0.55113999999999996</v>
+      </c>
+      <c r="P145" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.386000000000001E-2</v>
+      </c>
+      <c r="Q145" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.228499999999999E-2</v>
+      </c>
+      <c r="R145" s="9">
+        <f t="shared" si="19"/>
+        <v>-8.6070000000000313E-3</v>
+      </c>
+      <c r="S145" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W145" s="46">
+        <f t="shared" si="20"/>
+        <v>1.2088160000000001</v>
+      </c>
+      <c r="X145" s="47">
+        <f t="array" ref="X145">IF(O145&lt;&gt;"",AVERAGE(ABS(O145:R145)),"")</f>
+        <v>0.153973</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" ht="20">
+      <c r="A146">
+        <v>165</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="25">
+        <v>120</v>
+      </c>
+      <c r="D146" s="29">
+        <v>40</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>109</v>
+      </c>
+      <c r="G146" s="23"/>
+      <c r="J146" s="4">
+        <v>1.29687</v>
+      </c>
+      <c r="K146" s="4">
+        <v>1.7254499999999999</v>
+      </c>
+      <c r="L146" s="4">
+        <v>0.163468</v>
+      </c>
+      <c r="M146" s="4">
+        <v>0.28992400000000002</v>
+      </c>
+      <c r="N146" s="26">
+        <v>4</v>
+      </c>
+      <c r="O146" s="4">
+        <f t="shared" si="16"/>
+        <v>9.6870000000000012E-2</v>
+      </c>
+      <c r="P146" s="4">
+        <f t="shared" si="17"/>
+        <v>-6.9550000000000001E-2</v>
+      </c>
+      <c r="Q146" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.0531999999999986E-2</v>
+      </c>
+      <c r="R146" s="9">
+        <f t="shared" si="19"/>
+        <v>-8.776000000000006E-3</v>
+      </c>
+      <c r="S146" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W146" s="46">
+        <f t="shared" si="20"/>
+        <v>0.321214</v>
+      </c>
+      <c r="X146" s="47">
+        <f t="array" ref="X146">IF(O146&lt;&gt;"",AVERAGE(ABS(O146:R146)),"")</f>
+        <v>4.6432000000000001E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" ht="20">
+      <c r="A147">
+        <v>166</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="25">
+        <v>120</v>
+      </c>
+      <c r="D147" s="29">
+        <v>40</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>109</v>
+      </c>
+      <c r="G147" s="23"/>
+      <c r="J147" s="4">
+        <v>1.32003</v>
+      </c>
+      <c r="K147" s="4">
+        <v>1.7205699999999999</v>
+      </c>
+      <c r="L147" s="4">
+        <v>0.16045499999999999</v>
+      </c>
+      <c r="M147" s="4">
+        <v>0.28751399999999999</v>
+      </c>
+      <c r="N147" s="26">
+        <v>4</v>
+      </c>
+      <c r="O147" s="4">
+        <f t="shared" si="16"/>
+        <v>0.12003000000000008</v>
+      </c>
+      <c r="P147" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.4429999999999996E-2</v>
+      </c>
+      <c r="Q147" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.3545000000000001E-2</v>
+      </c>
+      <c r="R147" s="9">
+        <f t="shared" si="19"/>
+        <v>-1.1186000000000029E-2</v>
+      </c>
+      <c r="S147" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W147" s="46">
+        <f t="shared" si="20"/>
+        <v>0.38868300000000022</v>
+      </c>
+      <c r="X147" s="47">
+        <f t="array" ref="X147">IF(O147&lt;&gt;"",AVERAGE(ABS(O147:R147)),"")</f>
+        <v>5.4797750000000027E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" ht="20">
+      <c r="A148">
+        <v>167</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="25">
+        <v>120</v>
+      </c>
+      <c r="D148" s="29">
+        <v>40</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>109</v>
+      </c>
+      <c r="G148" s="23"/>
+      <c r="J148" s="4">
+        <v>1.28803</v>
+      </c>
+      <c r="K148" s="4">
+        <v>1.72583</v>
+      </c>
+      <c r="L148" s="4">
+        <v>0.16621900000000001</v>
+      </c>
+      <c r="M148" s="4">
+        <v>0.288997</v>
+      </c>
+      <c r="N148" s="26">
+        <v>4</v>
+      </c>
+      <c r="O148" s="4">
+        <f t="shared" si="16"/>
+        <v>8.8030000000000053E-2</v>
+      </c>
+      <c r="P148" s="4">
+        <f t="shared" si="17"/>
+        <v>-6.9169999999999954E-2</v>
+      </c>
+      <c r="Q148" s="4">
+        <f t="shared" si="18"/>
+        <v>-7.7809999999999824E-3</v>
+      </c>
+      <c r="R148" s="9">
+        <f t="shared" si="19"/>
+        <v>-9.7030000000000172E-3</v>
+      </c>
+      <c r="S148" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W148" s="46">
+        <f t="shared" si="20"/>
+        <v>0.29768200000000006</v>
+      </c>
+      <c r="X148" s="47">
+        <f t="array" ref="X148">IF(O148&lt;&gt;"",AVERAGE(ABS(O148:R148)),"")</f>
+        <v>4.3671000000000001E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" ht="20">
+      <c r="A149">
+        <v>168</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="25">
+        <v>120</v>
+      </c>
+      <c r="D149" s="29">
+        <v>40</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>109</v>
+      </c>
+      <c r="G149" s="23"/>
+      <c r="J149" s="4">
+        <v>1.2919400000000001</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1.7523599999999999</v>
+      </c>
+      <c r="L149" s="4">
+        <v>0.17774400000000001</v>
+      </c>
+      <c r="M149" s="4">
+        <v>0.27526600000000001</v>
+      </c>
+      <c r="N149" s="26">
+        <v>4</v>
+      </c>
+      <c r="O149" s="4">
+        <f t="shared" si="16"/>
+        <v>9.1940000000000133E-2</v>
+      </c>
+      <c r="P149" s="4">
+        <f t="shared" si="17"/>
+        <v>-4.2640000000000011E-2</v>
+      </c>
+      <c r="Q149" s="4">
+        <f t="shared" si="18"/>
+        <v>3.7440000000000251E-3</v>
+      </c>
+      <c r="R149" s="9">
+        <f t="shared" si="19"/>
+        <v>-2.343400000000001E-2</v>
+      </c>
+      <c r="S149" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W149" s="46">
+        <f t="shared" si="20"/>
+        <v>0.30805400000000038</v>
+      </c>
+      <c r="X149" s="47">
+        <f t="array" ref="X149">IF(O149&lt;&gt;"",AVERAGE(ABS(O149:R149)),"")</f>
+        <v>4.0439500000000045E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27" ht="20">
+      <c r="A150">
+        <v>169</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="25">
+        <v>120</v>
+      </c>
+      <c r="D150" s="29">
+        <v>40</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>109</v>
+      </c>
+      <c r="G150" s="23"/>
+      <c r="J150" s="4">
+        <v>1.3061799999999999</v>
+      </c>
+      <c r="K150" s="4">
+        <v>1.7244999999999999</v>
+      </c>
+      <c r="L150" s="4">
+        <v>0.15335399999999999</v>
+      </c>
+      <c r="M150" s="4">
+        <v>0.294489</v>
+      </c>
+      <c r="N150" s="26">
+        <v>4</v>
+      </c>
+      <c r="O150" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10617999999999994</v>
+      </c>
+      <c r="P150" s="4">
+        <f t="shared" si="17"/>
+        <v>-7.0500000000000007E-2</v>
+      </c>
+      <c r="Q150" s="4">
+        <f t="shared" si="18"/>
+        <v>-2.0645999999999998E-2</v>
+      </c>
+      <c r="R150" s="9">
+        <f t="shared" si="19"/>
+        <v>-4.2110000000000203E-3</v>
+      </c>
+      <c r="S150" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W150" s="46">
+        <f t="shared" si="20"/>
+        <v>0.35743099999999994</v>
+      </c>
+      <c r="X150" s="47">
+        <f t="array" ref="X150">IF(O150&lt;&gt;"",AVERAGE(ABS(O150:R150)),"")</f>
+        <v>5.0384249999999992E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" ht="20">
+      <c r="A151">
+        <v>170</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="25">
+        <v>120</v>
+      </c>
+      <c r="D151" s="29">
+        <v>40</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>109</v>
+      </c>
+      <c r="G151" s="23"/>
+      <c r="J151" s="4">
+        <v>1.29992</v>
+      </c>
+      <c r="K151" s="4">
+        <v>1.7632699999999999</v>
+      </c>
+      <c r="L151" s="4">
+        <v>0.16175100000000001</v>
+      </c>
+      <c r="M151" s="4">
+        <v>0.29048200000000002</v>
+      </c>
+      <c r="N151" s="26">
+        <v>4</v>
+      </c>
+      <c r="O151" s="4">
+        <f t="shared" si="16"/>
+        <v>9.9920000000000009E-2</v>
+      </c>
+      <c r="P151" s="4">
+        <f t="shared" si="17"/>
+        <v>-3.1730000000000036E-2</v>
+      </c>
+      <c r="Q151" s="4">
+        <f t="shared" si="18"/>
+        <v>-1.2248999999999982E-2</v>
+      </c>
+      <c r="R151" s="9">
+        <f t="shared" si="19"/>
+        <v>-8.2180000000000031E-3</v>
+      </c>
+      <c r="S151" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W151" s="46">
+        <f t="shared" si="20"/>
+        <v>0.29297100000000004</v>
+      </c>
+      <c r="X151" s="47">
+        <f t="array" ref="X151">IF(O151&lt;&gt;"",AVERAGE(ABS(O151:R151)),"")</f>
+        <v>3.8029250000000007E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27" ht="20">
+      <c r="A152">
+        <v>171</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="25">
+        <v>120</v>
+      </c>
+      <c r="D152" s="29">
+        <v>40</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>109</v>
+      </c>
+      <c r="G152" s="23"/>
+      <c r="J152" s="4">
+        <v>1.29932</v>
+      </c>
+      <c r="K152" s="4">
+        <v>1.8137000000000001</v>
+      </c>
+      <c r="L152" s="4">
+        <v>0.179976</v>
+      </c>
+      <c r="M152" s="4">
+        <v>0.280414</v>
+      </c>
+      <c r="N152" s="26">
+        <v>4</v>
+      </c>
+      <c r="O152" s="4">
+        <f t="shared" ref="O152:O166" si="22">IF(AND(S152&lt;&gt;"",J152&lt;&gt;""),J152-S152,"")</f>
+        <v>9.9320000000000075E-2</v>
+      </c>
+      <c r="P152" s="4">
+        <f t="shared" ref="P152:P166" si="23">IF(K152&lt;&gt;"",K152-$T$5,"")</f>
+        <v>1.8700000000000161E-2</v>
+      </c>
+      <c r="Q152" s="4">
+        <f t="shared" ref="Q152:Q166" si="24">IF(L152&lt;&gt;"",L152-$U$5,"")</f>
+        <v>5.9760000000000091E-3</v>
+      </c>
+      <c r="R152" s="9">
+        <f t="shared" ref="R152:R166" si="25">IF(M152&lt;&gt;"",M152-$V$5,"")</f>
+        <v>-1.8286000000000024E-2</v>
+      </c>
+      <c r="S152" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W152" s="46">
+        <f t="shared" ref="W152:W166" si="26">IF(O152&lt;&gt;"", ABS(O152)*2 + ABS(P152)*1 + ABS(Q152)*3 + ABS(R152)*3, "")</f>
+        <v>0.29012600000000044</v>
+      </c>
+      <c r="X152" s="47">
+        <f t="array" ref="X152">IF(O152&lt;&gt;"",AVERAGE(ABS(O152:R152)),"")</f>
+        <v>3.5570500000000067E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27" ht="20">
+      <c r="A153">
+        <v>172</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="25">
+        <v>120</v>
+      </c>
+      <c r="D153" s="29">
+        <v>40</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>109</v>
+      </c>
+      <c r="G153" s="23"/>
+      <c r="J153" s="4">
+        <v>1.2941100000000001</v>
+      </c>
+      <c r="K153" s="4">
+        <v>1.75265</v>
+      </c>
+      <c r="L153" s="4">
+        <v>0.17916699999999999</v>
+      </c>
+      <c r="M153" s="4">
+        <v>0.28092899999999998</v>
+      </c>
+      <c r="N153" s="26">
+        <v>4</v>
+      </c>
+      <c r="O153" s="4">
+        <f t="shared" si="22"/>
+        <v>9.4110000000000138E-2</v>
+      </c>
+      <c r="P153" s="4">
+        <f t="shared" si="23"/>
+        <v>-4.2349999999999888E-2</v>
+      </c>
+      <c r="Q153" s="4">
+        <f t="shared" si="24"/>
+        <v>5.1670000000000049E-3</v>
+      </c>
+      <c r="R153" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.7771000000000037E-2</v>
+      </c>
+      <c r="S153" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W153" s="46">
+        <f t="shared" si="26"/>
+        <v>0.29938400000000032</v>
+      </c>
+      <c r="X153" s="47">
+        <f t="array" ref="X153">IF(O153&lt;&gt;"",AVERAGE(ABS(O153:R153)),"")</f>
+        <v>3.9849500000000017E-2</v>
+      </c>
+      <c r="Y153" s="37">
+        <f>AVERAGE(W141:W153)</f>
+        <v>0.39458061538461553</v>
+      </c>
+      <c r="Z153" s="37">
+        <f>AVERAGE(X141:X153)</f>
+        <v>5.3521846153846156E-2</v>
+      </c>
+      <c r="AA153">
+        <f>_xlfn.STDEV.P(X141:X153)</f>
+        <v>2.9749576987221832E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27" ht="20">
+      <c r="A154">
+        <v>175</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="25">
+        <v>120</v>
+      </c>
+      <c r="D154" s="29">
+        <v>40</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>111</v>
+      </c>
+      <c r="G154" s="23"/>
+      <c r="J154" s="4">
+        <v>1.3051200000000001</v>
+      </c>
+      <c r="K154" s="4">
+        <v>1.72414</v>
+      </c>
+      <c r="L154" s="4">
+        <v>0.15859100000000001</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0.28537099999999999</v>
+      </c>
+      <c r="N154" s="26">
+        <v>4</v>
+      </c>
+      <c r="O154" s="4">
+        <f t="shared" si="22"/>
+        <v>0.1051200000000001</v>
+      </c>
+      <c r="P154" s="4">
+        <f t="shared" si="23"/>
+        <v>-7.0859999999999923E-2</v>
+      </c>
+      <c r="Q154" s="4">
+        <f t="shared" si="24"/>
+        <v>-1.5408999999999978E-2</v>
+      </c>
+      <c r="R154" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.3329000000000035E-2</v>
+      </c>
+      <c r="S154" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W154" s="46">
+        <f t="shared" si="26"/>
+        <v>0.36731400000000014</v>
+      </c>
+      <c r="X154" s="47">
+        <f t="array" ref="X154">IF(O154&lt;&gt;"",AVERAGE(ABS(O154:R154)),"")</f>
+        <v>5.117950000000001E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27" ht="20">
+      <c r="A155">
+        <v>176</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="25">
+        <v>120</v>
+      </c>
+      <c r="D155" s="29">
+        <v>40</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>111</v>
+      </c>
+      <c r="G155" s="23"/>
+      <c r="J155" s="4">
+        <v>1.2953399999999999</v>
+      </c>
+      <c r="K155" s="4">
+        <v>1.74932</v>
+      </c>
+      <c r="L155" s="4">
+        <v>0.162276</v>
+      </c>
+      <c r="M155" s="4">
+        <v>0.28765099999999999</v>
+      </c>
+      <c r="N155" s="26">
+        <v>4</v>
+      </c>
+      <c r="O155" s="4">
+        <f t="shared" si="22"/>
+        <v>9.533999999999998E-2</v>
+      </c>
+      <c r="P155" s="4">
+        <f t="shared" si="23"/>
+        <v>-4.5679999999999943E-2</v>
+      </c>
+      <c r="Q155" s="4">
+        <f t="shared" si="24"/>
+        <v>-1.1723999999999984E-2</v>
+      </c>
+      <c r="R155" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.1049000000000031E-2</v>
+      </c>
+      <c r="S155" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W155" s="46">
+        <f t="shared" si="26"/>
+        <v>0.30467899999999998</v>
+      </c>
+      <c r="X155" s="47">
+        <f t="array" ref="X155">IF(O155&lt;&gt;"",AVERAGE(ABS(O155:R155)),"")</f>
+        <v>4.0948249999999985E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27" ht="20">
+      <c r="A156">
+        <v>177</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="25">
+        <v>120</v>
+      </c>
+      <c r="D156" s="29">
+        <v>40</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>111</v>
+      </c>
+      <c r="G156" s="23"/>
+      <c r="J156" s="4">
+        <v>1.2890699999999999</v>
+      </c>
+      <c r="K156" s="4">
+        <v>1.77887</v>
+      </c>
+      <c r="L156" s="4">
+        <v>0.15840099999999999</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0.28423999999999999</v>
+      </c>
+      <c r="N156" s="26">
+        <v>4</v>
+      </c>
+      <c r="O156" s="4">
+        <f t="shared" si="22"/>
+        <v>8.9069999999999983E-2</v>
+      </c>
+      <c r="P156" s="4">
+        <f t="shared" si="23"/>
+        <v>-1.6129999999999978E-2</v>
+      </c>
+      <c r="Q156" s="4">
+        <f t="shared" si="24"/>
+        <v>-1.5599000000000002E-2</v>
+      </c>
+      <c r="R156" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.4460000000000028E-2</v>
+      </c>
+      <c r="S156" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W156" s="46">
+        <f t="shared" si="26"/>
+        <v>0.28444700000000001</v>
+      </c>
+      <c r="X156" s="47">
+        <f t="array" ref="X156">IF(O156&lt;&gt;"",AVERAGE(ABS(O156:R156)),"")</f>
+        <v>3.3814749999999998E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27" ht="20">
+      <c r="A157">
+        <v>178</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="25">
+        <v>120</v>
+      </c>
+      <c r="D157" s="29">
+        <v>40</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>111</v>
+      </c>
+      <c r="G157" s="23"/>
+      <c r="J157" s="4">
+        <v>1.29284</v>
+      </c>
+      <c r="K157" s="4">
+        <v>1.75335</v>
+      </c>
+      <c r="L157" s="4">
+        <v>0.175233</v>
+      </c>
+      <c r="M157" s="4">
+        <v>0.264457</v>
+      </c>
+      <c r="N157" s="26">
+        <v>4</v>
+      </c>
+      <c r="O157" s="4">
+        <f t="shared" si="22"/>
+        <v>9.2840000000000034E-2</v>
+      </c>
+      <c r="P157" s="4">
+        <f t="shared" si="23"/>
+        <v>-4.1649999999999965E-2</v>
+      </c>
+      <c r="Q157" s="4">
+        <f t="shared" si="24"/>
+        <v>1.2330000000000119E-3</v>
+      </c>
+      <c r="R157" s="9">
+        <f t="shared" si="25"/>
+        <v>-3.4243000000000023E-2</v>
+      </c>
+      <c r="S157" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W157" s="46">
+        <f t="shared" si="26"/>
+        <v>0.33375800000000011</v>
+      </c>
+      <c r="X157" s="47">
+        <f t="array" ref="X157">IF(O157&lt;&gt;"",AVERAGE(ABS(O157:R157)),"")</f>
+        <v>4.2491500000000008E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27" ht="20">
+      <c r="A158">
+        <v>179</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="25">
+        <v>120</v>
+      </c>
+      <c r="D158" s="29">
+        <v>40</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>111</v>
+      </c>
+      <c r="G158" s="23"/>
+      <c r="J158" s="4">
+        <v>1.3004199999999999</v>
+      </c>
+      <c r="K158" s="4">
+        <v>1.7279800000000001</v>
+      </c>
+      <c r="L158" s="4">
+        <v>0.16977700000000001</v>
+      </c>
+      <c r="M158" s="4">
+        <v>0.2883</v>
+      </c>
+      <c r="N158" s="26">
+        <v>4</v>
+      </c>
+      <c r="O158" s="4">
+        <f t="shared" si="22"/>
+        <v>0.10041999999999995</v>
+      </c>
+      <c r="P158" s="4">
+        <f t="shared" si="23"/>
+        <v>-6.7019999999999857E-2</v>
+      </c>
+      <c r="Q158" s="4">
+        <f t="shared" si="24"/>
+        <v>-4.2229999999999768E-3</v>
+      </c>
+      <c r="R158" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.040000000000002E-2</v>
+      </c>
+      <c r="S158" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W158" s="46">
+        <f t="shared" si="26"/>
+        <v>0.31172899999999976</v>
+      </c>
+      <c r="X158" s="47">
+        <f t="array" ref="X158">IF(O158&lt;&gt;"",AVERAGE(ABS(O158:R158)),"")</f>
+        <v>4.5515749999999952E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27" ht="20">
+      <c r="A159">
+        <v>180</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="25">
+        <v>120</v>
+      </c>
+      <c r="D159" s="29">
+        <v>40</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>111</v>
+      </c>
+      <c r="G159" s="23"/>
+      <c r="J159" s="4">
+        <v>1.30131</v>
+      </c>
+      <c r="K159" s="4">
+        <v>1.75789</v>
+      </c>
+      <c r="L159" s="4">
+        <v>0.164905</v>
+      </c>
+      <c r="M159" s="4">
+        <v>0.28342200000000001</v>
+      </c>
+      <c r="N159" s="26">
+        <v>4</v>
+      </c>
+      <c r="O159" s="4">
+        <f t="shared" si="22"/>
+        <v>0.10131000000000001</v>
+      </c>
+      <c r="P159" s="4">
+        <f t="shared" si="23"/>
+        <v>-3.7109999999999976E-2</v>
+      </c>
+      <c r="Q159" s="4">
+        <f t="shared" si="24"/>
+        <v>-9.094999999999992E-3</v>
+      </c>
+      <c r="R159" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.5278000000000014E-2</v>
+      </c>
+      <c r="S159" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W159" s="46">
+        <f t="shared" si="26"/>
+        <v>0.31284900000000004</v>
+      </c>
+      <c r="X159" s="47">
+        <f t="array" ref="X159">IF(O159&lt;&gt;"",AVERAGE(ABS(O159:R159)),"")</f>
+        <v>4.0698249999999998E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27" ht="20">
+      <c r="A160">
+        <v>181</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="25">
+        <v>120</v>
+      </c>
+      <c r="D160" s="29">
+        <v>40</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>111</v>
+      </c>
+      <c r="G160" s="23"/>
+      <c r="J160" s="4">
+        <v>1.29617</v>
+      </c>
+      <c r="K160" s="4">
+        <v>1.79525</v>
+      </c>
+      <c r="L160" s="4">
+        <v>0.17805000000000001</v>
+      </c>
+      <c r="M160" s="4">
+        <v>0.28064699999999998</v>
+      </c>
+      <c r="N160" s="26">
+        <v>4</v>
+      </c>
+      <c r="O160" s="4">
+        <f t="shared" si="22"/>
+        <v>9.6170000000000089E-2</v>
+      </c>
+      <c r="P160" s="4">
+        <f t="shared" si="23"/>
+        <v>2.5000000000008349E-4</v>
+      </c>
+      <c r="Q160" s="4">
+        <f t="shared" si="24"/>
+        <v>4.0500000000000258E-3</v>
+      </c>
+      <c r="R160" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.8053000000000041E-2</v>
+      </c>
+      <c r="S160" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W160" s="46">
+        <f t="shared" si="26"/>
+        <v>0.25889900000000043</v>
+      </c>
+      <c r="X160" s="47">
+        <f t="array" ref="X160">IF(O160&lt;&gt;"",AVERAGE(ABS(O160:R160)),"")</f>
+        <v>2.963075000000006E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27" ht="20">
+      <c r="A161">
+        <v>182</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="25">
+        <v>120</v>
+      </c>
+      <c r="D161" s="29">
+        <v>40</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>111</v>
+      </c>
+      <c r="G161" s="23"/>
+      <c r="J161" s="4">
+        <v>1.29826</v>
+      </c>
+      <c r="K161" s="4">
+        <v>1.7485900000000001</v>
+      </c>
+      <c r="L161" s="4">
+        <v>0.15503800000000001</v>
+      </c>
+      <c r="M161" s="4">
+        <v>0.293908</v>
+      </c>
+      <c r="N161" s="26">
+        <v>4</v>
+      </c>
+      <c r="O161" s="4">
+        <f t="shared" si="22"/>
+        <v>9.8260000000000014E-2</v>
+      </c>
+      <c r="P161" s="4">
+        <f t="shared" si="23"/>
+        <v>-4.640999999999984E-2</v>
+      </c>
+      <c r="Q161" s="4">
+        <f t="shared" si="24"/>
+        <v>-1.8961999999999979E-2</v>
+      </c>
+      <c r="R161" s="9">
+        <f t="shared" si="25"/>
+        <v>-4.7920000000000185E-3</v>
+      </c>
+      <c r="S161" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W161" s="46">
+        <f t="shared" si="26"/>
+        <v>0.31419199999999986</v>
+      </c>
+      <c r="X161" s="47">
+        <f t="array" ref="X161">IF(O161&lt;&gt;"",AVERAGE(ABS(O161:R161)),"")</f>
+        <v>4.2105999999999963E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27" ht="20">
+      <c r="A162">
+        <v>183</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" s="25">
+        <v>120</v>
+      </c>
+      <c r="D162" s="29">
+        <v>40</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>111</v>
+      </c>
+      <c r="G162" s="23"/>
+      <c r="J162" s="4">
+        <v>1.28956</v>
+      </c>
+      <c r="K162" s="4">
+        <v>1.6984600000000001</v>
+      </c>
+      <c r="L162" s="4">
+        <v>0.161163</v>
+      </c>
+      <c r="M162" s="4">
+        <v>0.28859299999999999</v>
+      </c>
+      <c r="N162" s="26">
+        <v>4</v>
+      </c>
+      <c r="O162" s="4">
+        <f t="shared" si="22"/>
+        <v>8.9560000000000084E-2</v>
+      </c>
+      <c r="P162" s="4">
+        <f t="shared" si="23"/>
+        <v>-9.6539999999999848E-2</v>
+      </c>
+      <c r="Q162" s="4">
+        <f t="shared" si="24"/>
+        <v>-1.2836999999999987E-2</v>
+      </c>
+      <c r="R162" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.0107000000000033E-2</v>
+      </c>
+      <c r="S162" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W162" s="46">
+        <f t="shared" si="26"/>
+        <v>0.34449200000000008</v>
+      </c>
+      <c r="X162" s="47">
+        <f t="array" ref="X162">IF(O162&lt;&gt;"",AVERAGE(ABS(O162:R162)),"")</f>
+        <v>5.2260999999999988E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" ht="20">
+      <c r="A163">
+        <v>184</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" s="25">
+        <v>120</v>
+      </c>
+      <c r="D163" s="29">
+        <v>40</v>
+      </c>
+      <c r="E163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" t="s">
+        <v>111</v>
+      </c>
+      <c r="G163" s="23"/>
+      <c r="J163" s="4">
+        <v>1.2922</v>
+      </c>
+      <c r="K163" s="4">
+        <v>1.7604299999999999</v>
+      </c>
+      <c r="L163" s="4">
+        <v>0.159132</v>
+      </c>
+      <c r="M163" s="4">
+        <v>0.28810400000000003</v>
+      </c>
+      <c r="N163" s="26">
+        <v>4</v>
+      </c>
+      <c r="O163" s="4">
+        <f t="shared" si="22"/>
+        <v>9.220000000000006E-2</v>
+      </c>
+      <c r="P163" s="4">
+        <f t="shared" si="23"/>
+        <v>-3.456999999999999E-2</v>
+      </c>
+      <c r="Q163" s="4">
+        <f t="shared" si="24"/>
+        <v>-1.4867999999999992E-2</v>
+      </c>
+      <c r="R163" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.0595999999999994E-2</v>
+      </c>
+      <c r="S163" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W163" s="46">
+        <f t="shared" si="26"/>
+        <v>0.29536200000000007</v>
+      </c>
+      <c r="X163" s="47">
+        <f t="array" ref="X163">IF(O163&lt;&gt;"",AVERAGE(ABS(O163:R163)),"")</f>
+        <v>3.8058500000000009E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" ht="20">
+      <c r="A164">
+        <v>185</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="25">
+        <v>120</v>
+      </c>
+      <c r="D164" s="29">
+        <v>40</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>111</v>
+      </c>
+      <c r="G164" s="23"/>
+      <c r="J164" s="4">
+        <v>1.2917700000000001</v>
+      </c>
+      <c r="K164" s="4">
+        <v>1.74875</v>
+      </c>
+      <c r="L164" s="4">
+        <v>0.17113100000000001</v>
+      </c>
+      <c r="M164" s="4">
+        <v>0.28930499999999998</v>
+      </c>
+      <c r="N164" s="26">
+        <v>4</v>
+      </c>
+      <c r="O164" s="4">
+        <f t="shared" si="22"/>
+        <v>9.1770000000000129E-2</v>
+      </c>
+      <c r="P164" s="4">
+        <f t="shared" si="23"/>
+        <v>-4.6249999999999902E-2</v>
+      </c>
+      <c r="Q164" s="4">
+        <f t="shared" si="24"/>
+        <v>-2.8689999999999827E-3</v>
+      </c>
+      <c r="R164" s="9">
+        <f t="shared" si="25"/>
+        <v>-9.3950000000000422E-3</v>
+      </c>
+      <c r="S164" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W164" s="46">
+        <f t="shared" si="26"/>
+        <v>0.26658200000000021</v>
+      </c>
+      <c r="X164" s="47">
+        <f t="array" ref="X164">IF(O164&lt;&gt;"",AVERAGE(ABS(O164:R164)),"")</f>
+        <v>3.7571000000000014E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" ht="20">
+      <c r="A165">
+        <v>186</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="25">
+        <v>120</v>
+      </c>
+      <c r="D165" s="29">
+        <v>40</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>111</v>
+      </c>
+      <c r="G165" s="23"/>
+      <c r="J165" s="4">
+        <v>1.28993</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1.71905</v>
+      </c>
+      <c r="L165" s="4">
+        <v>0.177207</v>
+      </c>
+      <c r="M165" s="4">
+        <v>0.28091100000000002</v>
+      </c>
+      <c r="N165" s="26">
+        <v>4</v>
+      </c>
+      <c r="O165" s="4">
+        <f t="shared" si="22"/>
+        <v>8.9930000000000065E-2</v>
+      </c>
+      <c r="P165" s="4">
+        <f t="shared" si="23"/>
+        <v>-7.5949999999999962E-2</v>
+      </c>
+      <c r="Q165" s="4">
+        <f t="shared" si="24"/>
+        <v>3.2070000000000154E-3</v>
+      </c>
+      <c r="R165" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.7788999999999999E-2</v>
+      </c>
+      <c r="S165" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W165" s="46">
+        <f t="shared" si="26"/>
+        <v>0.31879800000000014</v>
+      </c>
+      <c r="X165" s="47">
+        <f t="array" ref="X165">IF(O165&lt;&gt;"",AVERAGE(ABS(O165:R165)),"")</f>
+        <v>4.6719000000000011E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27" ht="20">
+      <c r="A166">
+        <v>187</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="25">
+        <v>120</v>
+      </c>
+      <c r="D166" s="29">
+        <v>40</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>111</v>
+      </c>
+      <c r="G166" s="23"/>
+      <c r="J166" s="4">
+        <v>1.29054</v>
+      </c>
+      <c r="K166" s="4">
+        <v>1.7464299999999999</v>
+      </c>
+      <c r="L166" s="4">
+        <v>0.169826</v>
+      </c>
+      <c r="M166" s="4">
+        <v>0.28030699999999997</v>
+      </c>
+      <c r="N166" s="26">
+        <v>4</v>
+      </c>
+      <c r="O166" s="4">
+        <f t="shared" si="22"/>
+        <v>9.0540000000000065E-2</v>
+      </c>
+      <c r="P166" s="4">
+        <f t="shared" si="23"/>
+        <v>-4.8570000000000002E-2</v>
+      </c>
+      <c r="Q166" s="4">
+        <f t="shared" si="24"/>
+        <v>-4.1739999999999833E-3</v>
+      </c>
+      <c r="R166" s="9">
+        <f t="shared" si="25"/>
+        <v>-1.8393000000000048E-2</v>
+      </c>
+      <c r="S166" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W166" s="46">
+        <f t="shared" si="26"/>
+        <v>0.29735100000000025</v>
+      </c>
+      <c r="X166" s="47">
+        <f t="array" ref="X166">IF(O166&lt;&gt;"",AVERAGE(ABS(O166:R166)),"")</f>
+        <v>4.0419250000000025E-2</v>
+      </c>
+      <c r="Y166" s="37">
+        <f>AVERAGE(W154:W166)</f>
+        <v>0.30849630769230774</v>
+      </c>
+      <c r="Z166" s="37">
+        <f>AVERAGE(X154:X166)</f>
+        <v>4.1647192307692309E-2</v>
+      </c>
+      <c r="AA166">
+        <f>_xlfn.STDEV.P(X154:X166)</f>
+        <v>6.0970553052854867E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27" ht="32.5">
+      <c r="A167" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="29"/>
+      <c r="G167" s="23"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="26"/>
+      <c r="O167" s="4">
+        <f t="array" ref="O167">MIN(ABS(Q154:Q166))</f>
+        <v>1.2330000000000119E-3</v>
+      </c>
+      <c r="P167" s="4">
+        <f t="array" ref="P167">MAX(ABS(Q154:Q166))</f>
+        <v>1.8961999999999979E-2</v>
+      </c>
+      <c r="Q167" s="4">
+        <f t="array" ref="Q167">MIN(ABS(R154:R166))</f>
+        <v>4.7920000000000185E-3</v>
+      </c>
+      <c r="R167" s="4">
+        <f t="array" ref="R167">MAX(ABS(R154:R166))</f>
+        <v>3.4243000000000023E-2</v>
+      </c>
+      <c r="S167" s="5"/>
+    </row>
+    <row r="168" spans="1:27">
+      <c r="B168" s="3"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="29"/>
+      <c r="G168" s="23"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="26"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="9"/>
+      <c r="S168" s="5"/>
+    </row>
+    <row r="169" spans="1:27">
+      <c r="B169" s="3"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="29"/>
+      <c r="G169" s="23"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="26"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="9"/>
+      <c r="S169" s="5"/>
+    </row>
+    <row r="170" spans="1:27">
+      <c r="B170" s="3"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="29"/>
+      <c r="G170" s="23"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="26"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="9"/>
+      <c r="S170" s="5"/>
+    </row>
+    <row r="171" spans="1:27">
+      <c r="B171" s="3"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="29"/>
+      <c r="G171" s="23"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="26"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="9"/>
+      <c r="S171" s="5"/>
+    </row>
+    <row r="172" spans="1:27">
+      <c r="B172" s="3"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="29"/>
+      <c r="G172" s="23"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="26"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="9"/>
+      <c r="S172" s="5"/>
+    </row>
+    <row r="173" spans="1:27">
+      <c r="B173" s="3"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="29"/>
+      <c r="G173" s="23"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="26"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="9"/>
+      <c r="S173" s="5"/>
+    </row>
+    <row r="174" spans="1:27">
+      <c r="B174" s="3"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="29"/>
+      <c r="G174" s="23"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="26"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="9"/>
+      <c r="S174" s="5"/>
+    </row>
+    <row r="175" spans="1:27">
+      <c r="B175" s="3"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="29"/>
+      <c r="G175" s="23"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="26"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="9"/>
+      <c r="S175" s="5"/>
+    </row>
+    <row r="176" spans="1:27">
+      <c r="B176" s="3"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="29"/>
+      <c r="G176" s="23"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="26"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="9"/>
+      <c r="S176" s="5"/>
+    </row>
+    <row r="177" spans="2:19">
+      <c r="B177" s="3"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="29"/>
+      <c r="G177" s="23"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="26"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="9"/>
+      <c r="S177" s="5"/>
+    </row>
+    <row r="178" spans="2:19">
+      <c r="B178" s="3"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="29"/>
+      <c r="G178" s="23"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="26"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="9"/>
+      <c r="S178" s="5"/>
+    </row>
+    <row r="179" spans="2:19">
+      <c r="B179" s="3"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="29"/>
+      <c r="G179" s="23"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="26"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
+      <c r="R179" s="9"/>
+      <c r="S179" s="5"/>
+    </row>
+    <row r="180" spans="2:19">
+      <c r="B180" s="3"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="29"/>
+      <c r="G180" s="23"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="26"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="9"/>
+      <c r="S180" s="5"/>
+    </row>
+    <row r="181" spans="2:19">
+      <c r="B181" s="3"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="29"/>
+      <c r="G181" s="23"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="26"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+      <c r="R181" s="9"/>
+      <c r="S181" s="5"/>
+    </row>
+    <row r="182" spans="2:19">
+      <c r="B182" s="3"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="29"/>
+      <c r="G182" s="23"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="26"/>
+      <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+      <c r="R182" s="9"/>
+      <c r="S182" s="5"/>
+    </row>
+    <row r="183" spans="2:19">
+      <c r="B183" s="3"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="29"/>
+      <c r="G183" s="23"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="26"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="9"/>
+      <c r="S183" s="5"/>
+    </row>
+    <row r="184" spans="2:19">
+      <c r="B184" s="3"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="29"/>
+      <c r="G184" s="23"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="26"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
+      <c r="Q184" s="4"/>
+      <c r="R184" s="9"/>
+      <c r="S184" s="5"/>
+    </row>
+    <row r="185" spans="2:19">
+      <c r="B185" s="3"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="29"/>
+      <c r="G185" s="23"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="26"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="9"/>
+      <c r="S185" s="5"/>
+    </row>
+    <row r="186" spans="2:19">
+      <c r="B186" s="3"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="29"/>
+      <c r="G186" s="23"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="26"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="9"/>
+      <c r="S186" s="5"/>
+    </row>
+    <row r="187" spans="2:19">
+      <c r="B187" s="3"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="29"/>
+      <c r="G187" s="23"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="26"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="9"/>
+      <c r="S187" s="5"/>
+    </row>
+    <row r="188" spans="2:19">
+      <c r="B188" s="3"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="29"/>
+      <c r="G188" s="23"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="26"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="9"/>
+      <c r="S188" s="5"/>
+    </row>
+    <row r="189" spans="2:19">
+      <c r="B189" s="3"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="29"/>
+      <c r="G189" s="23"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="26"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="9"/>
+      <c r="S189" s="5"/>
+    </row>
+    <row r="190" spans="2:19">
+      <c r="B190" s="3"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="29"/>
+      <c r="G190" s="23"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="26"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="9"/>
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="2:19">
+      <c r="B191" s="3"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="29"/>
+      <c r="G191" s="23"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="26"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="9"/>
+      <c r="S191" s="5"/>
+    </row>
+    <row r="192" spans="2:19">
+      <c r="B192" s="3"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="29"/>
+      <c r="G192" s="23"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="26"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="9"/>
+      <c r="S192" s="5"/>
+    </row>
+    <row r="193" spans="2:19">
+      <c r="B193" s="3"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="29"/>
+      <c r="G193" s="23"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="26"/>
+      <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
+      <c r="R193" s="9"/>
+      <c r="S193" s="5"/>
+    </row>
+    <row r="194" spans="2:19">
+      <c r="B194" s="3"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="29"/>
+      <c r="G194" s="23"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="26"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+      <c r="R194" s="9"/>
+      <c r="S194" s="5"/>
+    </row>
+    <row r="195" spans="2:19">
+      <c r="B195" s="3"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="29"/>
+      <c r="G195" s="23"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="26"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="9"/>
+      <c r="S195" s="5"/>
+    </row>
+    <row r="196" spans="2:19">
+      <c r="B196" s="3"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="29"/>
+      <c r="G196" s="23"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="26"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="9"/>
+      <c r="S196" s="5"/>
+    </row>
+    <row r="197" spans="2:19">
+      <c r="B197" s="3"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="29"/>
+      <c r="G197" s="23"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="26"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="9"/>
+      <c r="S197" s="5"/>
+    </row>
+    <row r="198" spans="2:19">
+      <c r="B198" s="3"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="29"/>
+      <c r="G198" s="23"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="26"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="9"/>
+      <c r="S198" s="5"/>
+    </row>
+    <row r="199" spans="2:19">
+      <c r="B199" s="3"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="29"/>
+      <c r="G199" s="23"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="26"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="9"/>
+      <c r="S199" s="5"/>
+    </row>
+    <row r="200" spans="2:19">
+      <c r="B200" s="3"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="29"/>
+      <c r="G200" s="23"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="26"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="9"/>
+      <c r="S200" s="5"/>
+    </row>
+    <row r="201" spans="2:19">
+      <c r="B201" s="3"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="29"/>
+      <c r="G201" s="23"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="26"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="9"/>
+      <c r="S201" s="5"/>
+    </row>
+    <row r="202" spans="2:19">
+      <c r="B202" s="3"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="29"/>
+      <c r="G202" s="23"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="26"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="9"/>
+      <c r="S202" s="5"/>
+    </row>
+    <row r="203" spans="2:19">
+      <c r="B203" s="3"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="29"/>
+      <c r="G203" s="23"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="26"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="9"/>
+      <c r="S203" s="5"/>
+    </row>
+    <row r="204" spans="2:19">
+      <c r="B204" s="3"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="29"/>
+      <c r="G204" s="23"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="26"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="9"/>
+      <c r="S204" s="5"/>
+    </row>
+    <row r="205" spans="2:19">
+      <c r="B205" s="3"/>
+      <c r="C205" s="25"/>
+      <c r="D205" s="29"/>
+      <c r="G205" s="23"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="26"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="9"/>
+      <c r="S205" s="5"/>
+    </row>
+    <row r="206" spans="2:19">
+      <c r="B206" s="3"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="29"/>
+      <c r="G206" s="23"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="26"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="9"/>
+      <c r="S206" s="5"/>
+    </row>
+    <row r="207" spans="2:19">
+      <c r="B207" s="3"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="29"/>
+      <c r="G207" s="23"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="26"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="9"/>
+      <c r="S207" s="5"/>
+    </row>
+    <row r="208" spans="2:19">
+      <c r="B208" s="3"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="29"/>
+      <c r="G208" s="23"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="26"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="9"/>
+      <c r="S208" s="5"/>
+    </row>
+    <row r="209" spans="2:19">
+      <c r="B209" s="3"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="29"/>
+      <c r="G209" s="23"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="26"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="9"/>
+      <c r="S209" s="5"/>
+    </row>
+    <row r="210" spans="2:19">
+      <c r="B210" s="3"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="29"/>
+      <c r="G210" s="23"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="26"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="9"/>
+      <c r="S210" s="5"/>
+    </row>
+    <row r="211" spans="2:19">
+      <c r="B211" s="3"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="29"/>
+      <c r="G211" s="23"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="26"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="9"/>
+      <c r="S211" s="5"/>
+    </row>
+    <row r="212" spans="2:19">
+      <c r="B212" s="3"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="29"/>
+      <c r="G212" s="23"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="26"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="9"/>
+      <c r="S212" s="5"/>
+    </row>
+    <row r="213" spans="2:19">
+      <c r="B213" s="3"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="29"/>
+      <c r="G213" s="23"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="26"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="9"/>
+      <c r="S213" s="5"/>
+    </row>
+    <row r="214" spans="2:19">
+      <c r="B214" s="3"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="29"/>
+      <c r="G214" s="23"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="26"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="9"/>
+      <c r="S214" s="5"/>
+    </row>
+    <row r="215" spans="2:19">
+      <c r="B215" s="3"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="29"/>
+      <c r="G215" s="23"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="26"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="9"/>
+      <c r="S215" s="5"/>
+    </row>
+    <row r="216" spans="2:19">
+      <c r="B216" s="3"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="29"/>
+      <c r="G216" s="23"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="26"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="9"/>
+      <c r="S216" s="5"/>
+    </row>
+    <row r="217" spans="2:19">
+      <c r="B217" s="3"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="29"/>
+      <c r="G217" s="23"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="26"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="9"/>
+      <c r="S217" s="5"/>
+    </row>
+    <row r="218" spans="2:19">
+      <c r="B218" s="3"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="29"/>
+      <c r="G218" s="23"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="26"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="9"/>
+      <c r="S218" s="5"/>
+    </row>
+    <row r="219" spans="2:19">
+      <c r="B219" s="3"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="29"/>
+      <c r="G219" s="23"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="26"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="9"/>
+      <c r="S219" s="5"/>
+    </row>
+    <row r="220" spans="2:19">
+      <c r="B220" s="3"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="29"/>
+      <c r="G220" s="23"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="4"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="26"/>
+      <c r="O220" s="4"/>
+      <c r="P220" s="4"/>
+      <c r="Q220" s="4"/>
+      <c r="R220" s="9"/>
+      <c r="S220" s="5"/>
+    </row>
+    <row r="221" spans="2:19">
+      <c r="B221" s="3"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="29"/>
+      <c r="G221" s="23"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="26"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="9"/>
+      <c r="S221" s="5"/>
+    </row>
+    <row r="222" spans="2:19">
+      <c r="B222" s="3"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="29"/>
+      <c r="G222" s="23"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="4"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="26"/>
+      <c r="O222" s="4"/>
+      <c r="P222" s="4"/>
+      <c r="Q222" s="4"/>
+      <c r="R222" s="9"/>
+      <c r="S222" s="5"/>
+    </row>
+    <row r="223" spans="2:19">
+      <c r="B223" s="3"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="29"/>
+      <c r="G223" s="23"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="26"/>
+      <c r="O223" s="4"/>
+      <c r="P223" s="4"/>
+      <c r="Q223" s="4"/>
+      <c r="R223" s="9"/>
+      <c r="S223" s="5"/>
+    </row>
+    <row r="224" spans="2:19">
+      <c r="B224" s="3"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="29"/>
+      <c r="G224" s="23"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="26"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="4"/>
+      <c r="Q224" s="4"/>
+      <c r="R224" s="9"/>
+      <c r="S224" s="5"/>
+    </row>
+    <row r="225" spans="2:19">
+      <c r="B225" s="3"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="29"/>
+      <c r="G225" s="23"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="26"/>
+      <c r="O225" s="4"/>
+      <c r="P225" s="4"/>
+      <c r="Q225" s="4"/>
+      <c r="R225" s="9"/>
+      <c r="S225" s="5"/>
+    </row>
+    <row r="226" spans="2:19">
+      <c r="B226" s="3"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="29"/>
+      <c r="G226" s="23"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="4"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="26"/>
+      <c r="O226" s="4"/>
+      <c r="P226" s="4"/>
+      <c r="Q226" s="4"/>
+      <c r="R226" s="9"/>
+      <c r="S226" s="5"/>
+    </row>
+    <row r="227" spans="2:19">
+      <c r="B227" s="3"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="29"/>
+      <c r="G227" s="23"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="26"/>
+      <c r="O227" s="4"/>
+      <c r="P227" s="4"/>
+      <c r="Q227" s="4"/>
+      <c r="R227" s="9"/>
+      <c r="S227" s="5"/>
+    </row>
+    <row r="228" spans="2:19">
+      <c r="B228" s="3"/>
+      <c r="C228" s="25"/>
+      <c r="D228" s="29"/>
+      <c r="G228" s="23"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="4"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="4"/>
+      <c r="N228" s="26"/>
+      <c r="O228" s="4"/>
+      <c r="P228" s="4"/>
+      <c r="Q228" s="4"/>
+      <c r="R228" s="9"/>
+      <c r="S228" s="5"/>
+    </row>
+    <row r="229" spans="2:19">
+      <c r="B229" s="3"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="29"/>
+      <c r="G229" s="23"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="26"/>
+      <c r="O229" s="4"/>
+      <c r="P229" s="4"/>
+      <c r="Q229" s="4"/>
+      <c r="R229" s="9"/>
+      <c r="S229" s="5"/>
+    </row>
+    <row r="230" spans="2:19">
+      <c r="B230" s="3"/>
+      <c r="C230" s="25"/>
+      <c r="D230" s="29"/>
+      <c r="G230" s="23"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="26"/>
+      <c r="O230" s="4"/>
+      <c r="P230" s="4"/>
+      <c r="Q230" s="4"/>
+      <c r="R230" s="9"/>
+      <c r="S230" s="5"/>
+    </row>
+    <row r="231" spans="2:19">
+      <c r="B231" s="3"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="29"/>
+      <c r="G231" s="23"/>
+      <c r="J231" s="4"/>
+      <c r="K231" s="4"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="26"/>
+      <c r="O231" s="4"/>
+      <c r="P231" s="4"/>
+      <c r="Q231" s="4"/>
+      <c r="R231" s="9"/>
+      <c r="S231" s="5"/>
+    </row>
+    <row r="232" spans="2:19">
+      <c r="B232" s="3"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="29"/>
+      <c r="G232" s="23"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="4"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="26"/>
+      <c r="O232" s="4"/>
+      <c r="P232" s="4"/>
+      <c r="Q232" s="4"/>
+      <c r="R232" s="9"/>
+      <c r="S232" s="5"/>
+    </row>
+    <row r="233" spans="2:19">
+      <c r="B233" s="3"/>
+      <c r="C233" s="25"/>
+      <c r="D233" s="29"/>
+      <c r="G233" s="23"/>
+      <c r="J233" s="4"/>
+      <c r="K233" s="4"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="26"/>
+      <c r="O233" s="4"/>
+      <c r="P233" s="4"/>
+      <c r="Q233" s="4"/>
+      <c r="R233" s="9"/>
+      <c r="S233" s="5"/>
+    </row>
+    <row r="234" spans="2:19">
+      <c r="B234" s="3"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="29"/>
+      <c r="G234" s="23"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="4"/>
+      <c r="L234" s="4"/>
+      <c r="M234" s="4"/>
+      <c r="N234" s="26"/>
+      <c r="O234" s="4"/>
+      <c r="P234" s="4"/>
+      <c r="Q234" s="4"/>
+      <c r="R234" s="9"/>
+      <c r="S234" s="5"/>
+    </row>
+    <row r="235" spans="2:19">
+      <c r="B235" s="3"/>
+      <c r="C235" s="25"/>
+      <c r="D235" s="29"/>
+      <c r="G235" s="23"/>
+      <c r="J235" s="4"/>
+      <c r="K235" s="4"/>
+      <c r="L235" s="4"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="26"/>
+      <c r="O235" s="4"/>
+      <c r="P235" s="4"/>
+      <c r="Q235" s="4"/>
+      <c r="R235" s="9"/>
+      <c r="S235" s="5"/>
+    </row>
+    <row r="236" spans="2:19">
+      <c r="B236" s="3"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="29"/>
+      <c r="G236" s="23"/>
+      <c r="J236" s="4"/>
+      <c r="K236" s="4"/>
+      <c r="L236" s="4"/>
+      <c r="M236" s="4"/>
+      <c r="N236" s="26"/>
+      <c r="O236" s="4"/>
+      <c r="P236" s="4"/>
+      <c r="Q236" s="4"/>
+      <c r="R236" s="9"/>
+      <c r="S236" s="5"/>
+    </row>
+    <row r="237" spans="2:19">
+      <c r="B237" s="3"/>
+      <c r="C237" s="25"/>
+      <c r="D237" s="29"/>
+      <c r="G237" s="23"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="4"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="26"/>
+      <c r="O237" s="4"/>
+      <c r="P237" s="4"/>
+      <c r="Q237" s="4"/>
+      <c r="R237" s="9"/>
+      <c r="S237" s="5"/>
+    </row>
+    <row r="238" spans="2:19">
+      <c r="B238" s="3"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="29"/>
+      <c r="G238" s="23"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="4"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="26"/>
+      <c r="O238" s="4"/>
+      <c r="P238" s="4"/>
+      <c r="Q238" s="4"/>
+      <c r="R238" s="9"/>
+      <c r="S238" s="5"/>
+    </row>
+    <row r="239" spans="2:19">
+      <c r="B239" s="3"/>
+      <c r="C239" s="25"/>
+      <c r="D239" s="29"/>
+      <c r="G239" s="23"/>
+      <c r="J239" s="4"/>
+      <c r="K239" s="4"/>
+      <c r="L239" s="4"/>
+      <c r="M239" s="4"/>
+      <c r="N239" s="26"/>
+      <c r="O239" s="4"/>
+      <c r="P239" s="4"/>
+      <c r="Q239" s="4"/>
+      <c r="R239" s="9"/>
+      <c r="S239" s="5"/>
+    </row>
+    <row r="240" spans="2:19">
+      <c r="B240" s="3"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="29"/>
+      <c r="G240" s="23"/>
+      <c r="J240" s="4"/>
+      <c r="K240" s="4"/>
+      <c r="L240" s="4"/>
+      <c r="M240" s="4"/>
+      <c r="N240" s="26"/>
+      <c r="O240" s="4"/>
+      <c r="P240" s="4"/>
+      <c r="Q240" s="4"/>
+      <c r="R240" s="9"/>
+      <c r="S240" s="5"/>
+    </row>
+    <row r="241" spans="2:19">
+      <c r="B241" s="3"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="29"/>
+      <c r="G241" s="23"/>
+      <c r="J241" s="4"/>
+      <c r="K241" s="4"/>
+      <c r="L241" s="4"/>
+      <c r="M241" s="4"/>
+      <c r="N241" s="26"/>
+      <c r="O241" s="4"/>
+      <c r="P241" s="4"/>
+      <c r="Q241" s="4"/>
+      <c r="R241" s="9"/>
+      <c r="S241" s="5"/>
+    </row>
+    <row r="242" spans="2:19">
+      <c r="B242" s="3"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="29"/>
+      <c r="G242" s="23"/>
+      <c r="J242" s="4"/>
+      <c r="K242" s="4"/>
+      <c r="L242" s="4"/>
+      <c r="M242" s="4"/>
+      <c r="N242" s="26"/>
+      <c r="O242" s="4"/>
+      <c r="P242" s="4"/>
+      <c r="Q242" s="4"/>
+      <c r="R242" s="9"/>
+      <c r="S242" s="5"/>
+    </row>
+    <row r="243" spans="2:19">
+      <c r="B243" s="3"/>
+      <c r="C243" s="25"/>
+      <c r="D243" s="29"/>
+      <c r="G243" s="23"/>
+      <c r="J243" s="4"/>
+      <c r="K243" s="4"/>
+      <c r="L243" s="4"/>
+      <c r="M243" s="4"/>
+      <c r="N243" s="26"/>
+      <c r="O243" s="4"/>
+      <c r="P243" s="4"/>
+      <c r="Q243" s="4"/>
+      <c r="R243" s="9"/>
+      <c r="S243" s="5"/>
+    </row>
+    <row r="244" spans="2:19">
+      <c r="B244" s="3"/>
+      <c r="C244" s="25"/>
+      <c r="D244" s="29"/>
+      <c r="G244" s="23"/>
+      <c r="J244" s="4"/>
+      <c r="K244" s="4"/>
+      <c r="L244" s="4"/>
+      <c r="M244" s="4"/>
+      <c r="N244" s="26"/>
+      <c r="O244" s="4"/>
+      <c r="P244" s="4"/>
+      <c r="Q244" s="4"/>
+      <c r="R244" s="9"/>
+      <c r="S244" s="5"/>
+    </row>
+    <row r="245" spans="2:19">
+      <c r="B245" s="3"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="29"/>
+      <c r="G245" s="23"/>
+      <c r="J245" s="4"/>
+      <c r="K245" s="4"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="4"/>
+      <c r="N245" s="26"/>
+      <c r="O245" s="4"/>
+      <c r="P245" s="4"/>
+      <c r="Q245" s="4"/>
+      <c r="R245" s="9"/>
+      <c r="S245" s="5"/>
+    </row>
+    <row r="246" spans="2:19">
+      <c r="B246" s="3"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="29"/>
+      <c r="G246" s="23"/>
+      <c r="J246" s="4"/>
+      <c r="K246" s="4"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="4"/>
+      <c r="N246" s="26"/>
+      <c r="O246" s="4"/>
+      <c r="P246" s="4"/>
+      <c r="Q246" s="4"/>
+      <c r="R246" s="9"/>
+      <c r="S246" s="5"/>
+    </row>
+    <row r="247" spans="2:19">
+      <c r="B247" s="3"/>
+      <c r="C247" s="25"/>
+      <c r="D247" s="29"/>
+      <c r="G247" s="23"/>
+      <c r="J247" s="4"/>
+      <c r="K247" s="4"/>
+      <c r="L247" s="4"/>
+      <c r="M247" s="4"/>
+      <c r="N247" s="26"/>
+      <c r="O247" s="4"/>
+      <c r="P247" s="4"/>
+      <c r="Q247" s="4"/>
+      <c r="R247" s="9"/>
+      <c r="S247" s="5"/>
+    </row>
+    <row r="248" spans="2:19">
+      <c r="B248" s="3"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="29"/>
+      <c r="G248" s="23"/>
+      <c r="J248" s="4"/>
+      <c r="K248" s="4"/>
+      <c r="L248" s="4"/>
+      <c r="M248" s="4"/>
+      <c r="N248" s="26"/>
+      <c r="O248" s="4"/>
+      <c r="P248" s="4"/>
+      <c r="Q248" s="4"/>
+      <c r="R248" s="9"/>
+      <c r="S248" s="5"/>
+    </row>
+    <row r="249" spans="2:19">
+      <c r="B249" s="3"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="29"/>
+      <c r="G249" s="23"/>
+      <c r="J249" s="4"/>
+      <c r="K249" s="4"/>
+      <c r="L249" s="4"/>
+      <c r="M249" s="4"/>
+      <c r="N249" s="26"/>
+      <c r="O249" s="4"/>
+      <c r="P249" s="4"/>
+      <c r="Q249" s="4"/>
+      <c r="R249" s="9"/>
+      <c r="S249" s="5"/>
+    </row>
+    <row r="250" spans="2:19">
+      <c r="B250" s="3"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="29"/>
+      <c r="G250" s="23"/>
+      <c r="J250" s="4"/>
+      <c r="K250" s="4"/>
+      <c r="L250" s="4"/>
+      <c r="M250" s="4"/>
+      <c r="N250" s="26"/>
+      <c r="O250" s="4"/>
+      <c r="P250" s="4"/>
+      <c r="Q250" s="4"/>
+      <c r="R250" s="9"/>
+      <c r="S250" s="5"/>
+    </row>
+    <row r="251" spans="2:19">
+      <c r="B251" s="3"/>
+      <c r="C251" s="25"/>
+      <c r="D251" s="29"/>
+      <c r="G251" s="23"/>
+      <c r="J251" s="4"/>
+      <c r="K251" s="4"/>
+      <c r="L251" s="4"/>
+      <c r="M251" s="4"/>
+      <c r="N251" s="26"/>
+      <c r="O251" s="4"/>
+      <c r="P251" s="4"/>
+      <c r="Q251" s="4"/>
+      <c r="R251" s="9"/>
+      <c r="S251" s="5"/>
+    </row>
+    <row r="252" spans="2:19">
+      <c r="B252" s="3"/>
+      <c r="C252" s="25"/>
+      <c r="D252" s="29"/>
+      <c r="G252" s="23"/>
+      <c r="J252" s="4"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="4"/>
+      <c r="M252" s="4"/>
+      <c r="N252" s="26"/>
+      <c r="O252" s="4"/>
+      <c r="P252" s="4"/>
+      <c r="Q252" s="4"/>
+      <c r="R252" s="9"/>
+      <c r="S252" s="5"/>
+    </row>
+    <row r="253" spans="2:19">
+      <c r="B253" s="3"/>
+      <c r="C253" s="25"/>
+      <c r="D253" s="29"/>
+      <c r="G253" s="23"/>
+      <c r="J253" s="4"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="4"/>
+      <c r="M253" s="4"/>
+      <c r="N253" s="26"/>
+      <c r="O253" s="4"/>
+      <c r="P253" s="4"/>
+      <c r="Q253" s="4"/>
+      <c r="R253" s="9"/>
+      <c r="S253" s="5"/>
+    </row>
+    <row r="254" spans="2:19">
+      <c r="B254" s="3"/>
+      <c r="C254" s="25"/>
+      <c r="D254" s="29"/>
+      <c r="G254" s="23"/>
+      <c r="J254" s="4"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="4"/>
+      <c r="M254" s="4"/>
+      <c r="N254" s="26"/>
+      <c r="O254" s="4"/>
+      <c r="P254" s="4"/>
+      <c r="Q254" s="4"/>
+      <c r="R254" s="9"/>
+      <c r="S254" s="5"/>
+    </row>
+    <row r="255" spans="2:19">
+      <c r="B255" s="3"/>
+      <c r="C255" s="25"/>
+      <c r="D255" s="29"/>
+      <c r="G255" s="23"/>
+      <c r="J255" s="4"/>
+      <c r="K255" s="4"/>
+      <c r="L255" s="4"/>
+      <c r="M255" s="4"/>
+      <c r="N255" s="26"/>
+      <c r="O255" s="4"/>
+      <c r="P255" s="4"/>
+      <c r="Q255" s="4"/>
+      <c r="R255" s="9"/>
+      <c r="S255" s="5"/>
+    </row>
+    <row r="256" spans="2:19">
+      <c r="B256" s="3"/>
+      <c r="C256" s="25"/>
+      <c r="D256" s="29"/>
+      <c r="G256" s="23"/>
+      <c r="J256" s="4"/>
+      <c r="K256" s="4"/>
+      <c r="L256" s="4"/>
+      <c r="M256" s="4"/>
+      <c r="N256" s="26"/>
+      <c r="O256" s="4"/>
+      <c r="P256" s="4"/>
+      <c r="Q256" s="4"/>
+      <c r="R256" s="9"/>
+      <c r="S256" s="5"/>
+    </row>
+    <row r="257" spans="2:19">
+      <c r="B257" s="3"/>
+      <c r="C257" s="25"/>
+      <c r="D257" s="29"/>
+      <c r="G257" s="23"/>
+      <c r="J257" s="4"/>
+      <c r="K257" s="4"/>
+      <c r="L257" s="4"/>
+      <c r="M257" s="4"/>
+      <c r="N257" s="26"/>
+      <c r="O257" s="4"/>
+      <c r="P257" s="4"/>
+      <c r="Q257" s="4"/>
+      <c r="R257" s="9"/>
+      <c r="S257" s="5"/>
+    </row>
+    <row r="258" spans="2:19">
+      <c r="B258" s="3"/>
+      <c r="C258" s="25"/>
+      <c r="D258" s="29"/>
+      <c r="G258" s="23"/>
+      <c r="J258" s="4"/>
+      <c r="K258" s="4"/>
+      <c r="L258" s="4"/>
+      <c r="M258" s="4"/>
+      <c r="N258" s="26"/>
+      <c r="O258" s="4"/>
+      <c r="P258" s="4"/>
+      <c r="Q258" s="4"/>
+      <c r="R258" s="9"/>
+      <c r="S258" s="5"/>
+    </row>
+    <row r="259" spans="2:19">
+      <c r="B259" s="3"/>
+      <c r="C259" s="25"/>
+      <c r="D259" s="29"/>
+      <c r="G259" s="23"/>
+      <c r="J259" s="4"/>
+      <c r="K259" s="4"/>
+      <c r="L259" s="4"/>
+      <c r="M259" s="4"/>
+      <c r="N259" s="26"/>
+      <c r="O259" s="4"/>
+      <c r="P259" s="4"/>
+      <c r="Q259" s="4"/>
+      <c r="R259" s="9"/>
+      <c r="S259" s="5"/>
+    </row>
+    <row r="260" spans="2:19">
+      <c r="B260" s="3"/>
+      <c r="C260" s="25"/>
+      <c r="D260" s="29"/>
+      <c r="G260" s="23"/>
+      <c r="J260" s="4"/>
+      <c r="K260" s="4"/>
+      <c r="L260" s="4"/>
+      <c r="M260" s="4"/>
+      <c r="N260" s="26"/>
+      <c r="O260" s="4"/>
+      <c r="P260" s="4"/>
+      <c r="Q260" s="4"/>
+      <c r="R260" s="9"/>
+      <c r="S260" s="5"/>
+    </row>
+    <row r="261" spans="2:19">
+      <c r="B261" s="3"/>
+      <c r="C261" s="25"/>
+      <c r="D261" s="29"/>
+      <c r="G261" s="23"/>
+      <c r="J261" s="4"/>
+      <c r="K261" s="4"/>
+      <c r="L261" s="4"/>
+      <c r="M261" s="4"/>
+      <c r="N261" s="26"/>
+      <c r="O261" s="4"/>
+      <c r="P261" s="4"/>
+      <c r="Q261" s="4"/>
+      <c r="R261" s="9"/>
+      <c r="S261" s="5"/>
+    </row>
+    <row r="262" spans="2:19">
+      <c r="B262" s="3"/>
+      <c r="C262" s="25"/>
+      <c r="D262" s="29"/>
+      <c r="G262" s="23"/>
+      <c r="J262" s="4"/>
+      <c r="K262" s="4"/>
+      <c r="L262" s="4"/>
+      <c r="M262" s="4"/>
+      <c r="N262" s="26"/>
+      <c r="O262" s="4"/>
+      <c r="P262" s="4"/>
+      <c r="Q262" s="4"/>
+      <c r="R262" s="9"/>
+      <c r="S262" s="5"/>
+    </row>
+    <row r="263" spans="2:19">
+      <c r="B263" s="3"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="29"/>
+      <c r="G263" s="23"/>
+      <c r="J263" s="4"/>
+      <c r="K263" s="4"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="4"/>
+      <c r="N263" s="26"/>
+      <c r="O263" s="4"/>
+      <c r="P263" s="4"/>
+      <c r="Q263" s="4"/>
+      <c r="R263" s="9"/>
+      <c r="S263" s="5"/>
+    </row>
+    <row r="264" spans="2:19">
+      <c r="B264" s="3"/>
+      <c r="C264" s="25"/>
+      <c r="D264" s="29"/>
+      <c r="G264" s="23"/>
+      <c r="J264" s="4"/>
+      <c r="K264" s="4"/>
+      <c r="L264" s="4"/>
+      <c r="M264" s="4"/>
+      <c r="N264" s="26"/>
+      <c r="O264" s="4"/>
+      <c r="P264" s="4"/>
+      <c r="Q264" s="4"/>
+      <c r="R264" s="9"/>
+      <c r="S264" s="5"/>
+    </row>
+    <row r="265" spans="2:19">
+      <c r="B265" s="3"/>
+      <c r="C265" s="25"/>
+      <c r="D265" s="29"/>
+      <c r="G265" s="23"/>
+      <c r="J265" s="4"/>
+      <c r="K265" s="4"/>
+      <c r="L265" s="4"/>
+      <c r="M265" s="4"/>
+      <c r="N265" s="26"/>
+      <c r="O265" s="4"/>
+      <c r="P265" s="4"/>
+      <c r="Q265" s="4"/>
+      <c r="R265" s="9"/>
+      <c r="S265" s="5"/>
+    </row>
+    <row r="266" spans="2:19">
+      <c r="B266" s="3"/>
+      <c r="C266" s="25"/>
+      <c r="D266" s="29"/>
+      <c r="G266" s="23"/>
+      <c r="J266" s="4"/>
+      <c r="K266" s="4"/>
+      <c r="L266" s="4"/>
+      <c r="M266" s="4"/>
+      <c r="N266" s="26"/>
+      <c r="O266" s="4"/>
+      <c r="P266" s="4"/>
+      <c r="Q266" s="4"/>
+      <c r="R266" s="9"/>
+      <c r="S266" s="5"/>
+    </row>
+    <row r="267" spans="2:19">
+      <c r="B267" s="3"/>
+      <c r="C267" s="25"/>
+      <c r="D267" s="29"/>
+      <c r="G267" s="23"/>
+      <c r="J267" s="4"/>
+      <c r="K267" s="4"/>
+      <c r="L267" s="4"/>
+      <c r="M267" s="4"/>
+      <c r="N267" s="26"/>
+      <c r="O267" s="4"/>
+      <c r="P267" s="4"/>
+      <c r="Q267" s="4"/>
+      <c r="R267" s="9"/>
+      <c r="S267" s="5"/>
+    </row>
+    <row r="268" spans="2:19">
+      <c r="B268" s="3"/>
+      <c r="C268" s="25"/>
+      <c r="D268" s="29"/>
+      <c r="G268" s="23"/>
+      <c r="J268" s="4"/>
+      <c r="K268" s="4"/>
+      <c r="L268" s="4"/>
+      <c r="M268" s="4"/>
+      <c r="N268" s="26"/>
+      <c r="O268" s="4"/>
+      <c r="P268" s="4"/>
+      <c r="Q268" s="4"/>
+      <c r="R268" s="9"/>
+      <c r="S268" s="5"/>
+    </row>
+    <row r="269" spans="2:19">
+      <c r="B269" s="3"/>
+      <c r="C269" s="25"/>
+      <c r="D269" s="29"/>
+      <c r="G269" s="23"/>
+      <c r="J269" s="4"/>
+      <c r="K269" s="4"/>
+      <c r="L269" s="4"/>
+      <c r="M269" s="4"/>
+      <c r="N269" s="26"/>
+      <c r="O269" s="4"/>
+      <c r="P269" s="4"/>
+      <c r="Q269" s="4"/>
+      <c r="R269" s="9"/>
+      <c r="S269" s="5"/>
+    </row>
+    <row r="270" spans="2:19">
+      <c r="B270" s="3"/>
+      <c r="C270" s="25"/>
+      <c r="D270" s="29"/>
+      <c r="G270" s="23"/>
+      <c r="J270" s="4"/>
+      <c r="K270" s="4"/>
+      <c r="L270" s="4"/>
+      <c r="M270" s="4"/>
+      <c r="N270" s="26"/>
+      <c r="O270" s="4"/>
+      <c r="P270" s="4"/>
+      <c r="Q270" s="4"/>
+      <c r="R270" s="9"/>
+      <c r="S270" s="5"/>
+    </row>
+    <row r="271" spans="2:19">
+      <c r="B271" s="3"/>
+      <c r="C271" s="25"/>
+      <c r="D271" s="29"/>
+      <c r="G271" s="23"/>
+      <c r="J271" s="4"/>
+      <c r="K271" s="4"/>
+      <c r="L271" s="4"/>
+      <c r="M271" s="4"/>
+      <c r="N271" s="26"/>
+      <c r="O271" s="4"/>
+      <c r="P271" s="4"/>
+      <c r="Q271" s="4"/>
+      <c r="R271" s="9"/>
+      <c r="S271" s="5"/>
+    </row>
+    <row r="272" spans="2:19">
+      <c r="B272" s="3"/>
+      <c r="C272" s="25"/>
+      <c r="D272" s="29"/>
+      <c r="G272" s="23"/>
+      <c r="J272" s="4"/>
+      <c r="K272" s="4"/>
+      <c r="L272" s="4"/>
+      <c r="M272" s="4"/>
+      <c r="N272" s="26"/>
+      <c r="O272" s="4"/>
+      <c r="P272" s="4"/>
+      <c r="Q272" s="4"/>
+      <c r="R272" s="9"/>
+      <c r="S272" s="5"/>
+    </row>
+    <row r="273" spans="2:19">
+      <c r="B273" s="3"/>
+      <c r="C273" s="25"/>
+      <c r="D273" s="29"/>
+      <c r="G273" s="23"/>
+      <c r="J273" s="4"/>
+      <c r="K273" s="4"/>
+      <c r="L273" s="4"/>
+      <c r="M273" s="4"/>
+      <c r="N273" s="26"/>
+      <c r="O273" s="4"/>
+      <c r="P273" s="4"/>
+      <c r="Q273" s="4"/>
+      <c r="R273" s="9"/>
+      <c r="S273" s="5"/>
+    </row>
+    <row r="274" spans="2:19">
+      <c r="B274" s="3"/>
+      <c r="C274" s="25"/>
+      <c r="D274" s="29"/>
+      <c r="G274" s="23"/>
+      <c r="J274" s="4"/>
+      <c r="K274" s="4"/>
+      <c r="L274" s="4"/>
+      <c r="M274" s="4"/>
+      <c r="N274" s="26"/>
+      <c r="O274" s="4"/>
+      <c r="P274" s="4"/>
+      <c r="Q274" s="4"/>
+      <c r="R274" s="9"/>
+      <c r="S274" s="5"/>
+    </row>
+    <row r="275" spans="2:19">
+      <c r="B275" s="3"/>
+      <c r="C275" s="25"/>
+      <c r="D275" s="29"/>
+      <c r="G275" s="23"/>
+      <c r="J275" s="4"/>
+      <c r="K275" s="4"/>
+      <c r="L275" s="4"/>
+      <c r="M275" s="4"/>
+      <c r="N275" s="26"/>
+      <c r="O275" s="4"/>
+      <c r="P275" s="4"/>
+      <c r="Q275" s="4"/>
+      <c r="R275" s="9"/>
+      <c r="S275" s="5"/>
+    </row>
+    <row r="276" spans="2:19">
+      <c r="B276" s="3"/>
+      <c r="C276" s="25"/>
+      <c r="D276" s="29"/>
+      <c r="G276" s="23"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="4"/>
+      <c r="M276" s="4"/>
+      <c r="N276" s="26"/>
+      <c r="O276" s="4"/>
+      <c r="P276" s="4"/>
+      <c r="Q276" s="4"/>
+      <c r="R276" s="9"/>
+      <c r="S276" s="5"/>
+    </row>
+    <row r="277" spans="2:19">
+      <c r="B277" s="3"/>
+      <c r="C277" s="25"/>
+      <c r="D277" s="29"/>
+      <c r="G277" s="23"/>
+      <c r="J277" s="4"/>
+      <c r="K277" s="4"/>
+      <c r="L277" s="4"/>
+      <c r="M277" s="4"/>
+      <c r="N277" s="26"/>
+      <c r="O277" s="4"/>
+      <c r="P277" s="4"/>
+      <c r="Q277" s="4"/>
+      <c r="R277" s="9"/>
+      <c r="S277" s="5"/>
+    </row>
+    <row r="278" spans="2:19">
+      <c r="B278" s="3"/>
+      <c r="C278" s="25"/>
+      <c r="D278" s="29"/>
+      <c r="G278" s="23"/>
+      <c r="J278" s="4"/>
+      <c r="K278" s="4"/>
+      <c r="L278" s="4"/>
+      <c r="M278" s="4"/>
+      <c r="N278" s="26"/>
+      <c r="O278" s="4"/>
+      <c r="P278" s="4"/>
+      <c r="Q278" s="4"/>
+      <c r="R278" s="9"/>
+      <c r="S278" s="5"/>
+    </row>
+    <row r="279" spans="2:19">
+      <c r="B279" s="3"/>
+      <c r="C279" s="25"/>
+      <c r="D279" s="29"/>
+      <c r="G279" s="23"/>
+      <c r="J279" s="4"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="4"/>
+      <c r="M279" s="4"/>
+      <c r="N279" s="26"/>
+      <c r="O279" s="4"/>
+      <c r="P279" s="4"/>
+      <c r="Q279" s="4"/>
+      <c r="R279" s="9"/>
+      <c r="S279" s="5"/>
+    </row>
+    <row r="280" spans="2:19">
+      <c r="B280" s="3"/>
+      <c r="C280" s="25"/>
+      <c r="D280" s="29"/>
+      <c r="G280" s="23"/>
+      <c r="J280" s="4"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="4"/>
+      <c r="M280" s="4"/>
+      <c r="N280" s="26"/>
+      <c r="O280" s="4"/>
+      <c r="P280" s="4"/>
+      <c r="Q280" s="4"/>
+      <c r="R280" s="9"/>
+      <c r="S280" s="5"/>
+    </row>
+    <row r="281" spans="2:19">
+      <c r="B281" s="3"/>
+      <c r="C281" s="25"/>
+      <c r="D281" s="29"/>
+      <c r="G281" s="23"/>
+      <c r="J281" s="4"/>
+      <c r="K281" s="4"/>
+      <c r="L281" s="4"/>
+      <c r="M281" s="4"/>
+      <c r="N281" s="26"/>
+      <c r="O281" s="4"/>
+      <c r="P281" s="4"/>
+      <c r="Q281" s="4"/>
+      <c r="R281" s="9"/>
+      <c r="S281" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="O5:R87 O93:R105">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="notBetween">
+  <conditionalFormatting sqref="O5:R281">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="notBetween">
       <formula>0.05</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="between">
       <formula>-0.03</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="between">
       <formula>0.03</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="between">
       <formula>0.03</formula>
       <formula>-0.03</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N87 N93:N105">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+  <conditionalFormatting sqref="N5:N281">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:R87 N93:R105">
-    <cfRule type="containsBlanks" dxfId="36" priority="7">
+  <conditionalFormatting sqref="N5:R281">
+    <cfRule type="containsBlanks" dxfId="17" priority="7">
       <formula>LEN(TRIM(N5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O88:R92">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="notBetween">
-      <formula>0.05</formula>
-      <formula>-0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
-      <formula>-0.03</formula>
-      <formula>-0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
-      <formula>0.03</formula>
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
-      <formula>0.03</formula>
-      <formula>-0.03</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N88:N92">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N88:R92">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(N88))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E106:E206">
-      <formula1>"通常,追加,なし"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E87 E93:E105">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E166">
       <formula1>"あり,なし(昼),なし(夜),その他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B281">
       <formula1>"RealSense,OAK-D-LITE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7941,8 +14271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -11961,28 +18291,28 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="O5:R105">
-    <cfRule type="containsBlanks" dxfId="35" priority="2">
+    <cfRule type="containsBlanks" dxfId="16" priority="2">
       <formula>LEN(TRIM(O5))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="notBetween">
       <formula>0.05</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="between">
       <formula>-0.03</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="between">
       <formula>0.03</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="between">
       <formula>0.03</formula>
       <formula>-0.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N105">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12007,8 +18337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -13580,7 +19910,9 @@
       <c r="M31" s="4">
         <v>0.327621</v>
       </c>
-      <c r="N31" s="26"/>
+      <c r="N31" s="26">
+        <v>3</v>
+      </c>
       <c r="O31" s="42" t="s">
         <v>104</v>
       </c>
@@ -16167,51 +22499,51 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="O5:R25 O40:R105 O38:Q39 R34:R39 O30:R33">
-    <cfRule type="containsBlanks" dxfId="29" priority="8">
+    <cfRule type="containsBlanks" dxfId="10" priority="8">
       <formula>LEN(TRIM(O5))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="notBetween">
       <formula>0.05</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
       <formula>-0.03</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="between">
       <formula>0.03</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="between">
       <formula>0.03</formula>
       <formula>-0.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N105">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:R29">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="notBetween">
       <formula>0.05</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>-0.03</formula>
       <formula>-0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
       <formula>0.03</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
       <formula>0.03</formula>
       <formula>-0.03</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:R29">
-    <cfRule type="containsBlanks" dxfId="18" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(O26))=0</formula>
     </cfRule>
   </conditionalFormatting>
